--- a/TABELA_MATERIA_FOLHA_COMPLETA.xlsx
+++ b/TABELA_MATERIA_FOLHA_COMPLETA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>alunos brancos segundo grau escola publica</t>
   </si>
@@ -553,6 +553,9 @@
   <si>
     <t>ENADE_ger</t>
   </si>
+  <si>
+    <t>CURSOS</t>
+  </si>
 </sst>
 </file>
 
@@ -604,7 +607,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -615,6 +637,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AS176" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:AS176"/>
+  <tableColumns count="45">
+    <tableColumn id="1" name="CURSOS"/>
+    <tableColumn id="2" name="alunos brancos segundo grau escola publica"/>
+    <tableColumn id="3" name="alunos negros segundo grau escola publica"/>
+    <tableColumn id="4" name="alunos pardos segundo grau escola publica"/>
+    <tableColumn id="5" name="alunos brancos segundo grau escola particular"/>
+    <tableColumn id="6" name="alunos negros segundo grau escola particular"/>
+    <tableColumn id="7" name="alunos pardos segundo grau escola particular"/>
+    <tableColumn id="8" name="alunos brancos federal segundo grau escola publica"/>
+    <tableColumn id="9" name="alunos negros federal segundo grau escola publica"/>
+    <tableColumn id="10" name="alunos pardos federal segundo grau escola publica"/>
+    <tableColumn id="11" name="alunos brancos faculdade particular segundo grau escola particular"/>
+    <tableColumn id="12" name="alunos negros faculdade particular segundo grau escola particular"/>
+    <tableColumn id="13" name="alunos pardos faculdade particular segundo grau escola particular"/>
+    <tableColumn id="14" name="alunos brancos particular renda 1;5 a 3 salarios minimos"/>
+    <tableColumn id="15" name="alunos negros  particular renda 1;5 a 3 salarios minimos"/>
+    <tableColumn id="16" name="alunos pardos particular renda 1;5 a 3 salarios minimos"/>
+    <tableColumn id="17" name="alunos brancos particular renda 10 a 30 salarios minimos"/>
+    <tableColumn id="18" name="alunos negros  particular renda 10 a 30 salarios minimos"/>
+    <tableColumn id="19" name="alunos pardos particular renda 10 a 30 salarios minimos"/>
+    <tableColumn id="20" name="alunos brancos federal renda 1;5 a 3 salarios minimos"/>
+    <tableColumn id="21" name="alunos negros federal renda 1;5 a 3 salarios minimos"/>
+    <tableColumn id="22" name="alunos pardos federal renda 1;5 a 3 salarios minimos"/>
+    <tableColumn id="23" name="alunos brancos federal renda 10 a 30 salarios minimos"/>
+    <tableColumn id="24" name="alunos negros  federal renda 10 a 30 salarios minimos"/>
+    <tableColumn id="25" name="alunos pardos federal renda 10 a 30 salarios minimos"/>
+    <tableColumn id="26" name="alunos particular brancos"/>
+    <tableColumn id="27" name="alunos particular negros"/>
+    <tableColumn id="28" name="alunos particular pardos"/>
+    <tableColumn id="29" name="alunos particular brancos acao afirmativa racial"/>
+    <tableColumn id="30" name="alunos particular negros acao afirmativa racial"/>
+    <tableColumn id="31" name="alunos particular pardos acao afirmativa racial"/>
+    <tableColumn id="32" name="alunos federal brancos"/>
+    <tableColumn id="33" name="alunos federal negros"/>
+    <tableColumn id="34" name="alunos federal pardos"/>
+    <tableColumn id="35" name="alunos federal brancos sem acao afirmativa"/>
+    <tableColumn id="36" name="alunos federal brancos acao afirmativa renda"/>
+    <tableColumn id="37" name="alunos federal brancos acao afirmativa escola publica"/>
+    <tableColumn id="38" name="alunos federal negros sem acao afirmativa"/>
+    <tableColumn id="39" name="alunos federal negros acao afirmativa escola publica"/>
+    <tableColumn id="40" name="alunos federal negros acao afirmativa racial"/>
+    <tableColumn id="41" name="alunos federal negros acao afirmativa renda"/>
+    <tableColumn id="42" name="alunos federal pardos sem acao afirmativa"/>
+    <tableColumn id="43" name="alunos federal pardos acao afirmativa escola publica"/>
+    <tableColumn id="44" name="alunos federal pardos acao afirmativa racial"/>
+    <tableColumn id="45" name="alunos federal pardos acao afirmativa renda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:XFD176"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -913,15 +989,15 @@
     <col min="23" max="23" width="44.83984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="44.41796875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="44.05078125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.20703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.3125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.7890625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.89453125" customWidth="1"/>
+    <col min="27" max="27" width="22.05078125" customWidth="1"/>
+    <col min="28" max="28" width="22.1015625" customWidth="1"/>
     <col min="29" max="29" width="38.26171875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="37.3125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="37.41796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.62890625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.89453125" customWidth="1"/>
+    <col min="33" max="33" width="20.05078125" customWidth="1"/>
+    <col min="34" max="34" width="20.1015625" customWidth="1"/>
     <col min="35" max="35" width="35.15625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="36.47265625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="43" bestFit="1" customWidth="1"/>
@@ -936,6 +1012,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19222,5 +19301,8 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TABELA_MATERIA_FOLHA_COMPLETA.xlsx
+++ b/TABELA_MATERIA_FOLHA_COMPLETA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>alunos brancos segundo grau escola publica</t>
   </si>
@@ -556,12 +556,48 @@
   <si>
     <t>CURSOS</t>
   </si>
+  <si>
+    <t>alunos brancos federal segundo grau escola particular</t>
+  </si>
+  <si>
+    <t>alunos negros federal segundo grau escola particular</t>
+  </si>
+  <si>
+    <t>alunos pardos federal segundo grau escola particular</t>
+  </si>
+  <si>
+    <t>alunos brancos faculdade particular segundo grau escola publica</t>
+  </si>
+  <si>
+    <t>alunos negros faculdade particular segundo grau escola publica</t>
+  </si>
+  <si>
+    <t>alunos pardos faculdade particular segundo grau escola publica</t>
+  </si>
+  <si>
+    <t>alunos brancos federal segundo grau escola particular acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos negros federal segundo grau escola particular acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos pardos federal segundo grau escola particular acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos brancos federal segundo grau escola particular sem acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos negros federal segundo grau escola particular sem acao afirmativa</t>
+  </si>
+  <si>
+    <t>alunos pardos federal segundo grau escola particular sem acao afirmativa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +611,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -598,11 +641,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,9 +684,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:AS176" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:AS176"/>
-  <tableColumns count="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:BE176" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:BE176"/>
+  <tableColumns count="57">
     <tableColumn id="1" name="CURSOS"/>
     <tableColumn id="2" name="alunos brancos segundo grau escola publica"/>
     <tableColumn id="3" name="alunos negros segundo grau escola publica"/>
@@ -688,6 +732,18 @@
     <tableColumn id="43" name="alunos federal pardos acao afirmativa escola publica"/>
     <tableColumn id="44" name="alunos federal pardos acao afirmativa racial"/>
     <tableColumn id="45" name="alunos federal pardos acao afirmativa renda"/>
+    <tableColumn id="46" name="alunos brancos federal segundo grau escola particular"/>
+    <tableColumn id="47" name="alunos negros federal segundo grau escola particular"/>
+    <tableColumn id="48" name="alunos pardos federal segundo grau escola particular"/>
+    <tableColumn id="49" name="alunos brancos faculdade particular segundo grau escola publica"/>
+    <tableColumn id="50" name="alunos negros faculdade particular segundo grau escola publica"/>
+    <tableColumn id="51" name="alunos pardos faculdade particular segundo grau escola publica"/>
+    <tableColumn id="52" name="alunos brancos federal segundo grau escola particular acao afirmativa"/>
+    <tableColumn id="53" name="alunos negros federal segundo grau escola particular acao afirmativa"/>
+    <tableColumn id="54" name="alunos pardos federal segundo grau escola particular acao afirmativa"/>
+    <tableColumn id="55" name="alunos brancos federal segundo grau escola particular sem acao afirmativa"/>
+    <tableColumn id="56" name="alunos negros federal segundo grau escola particular sem acao afirmativa"/>
+    <tableColumn id="57" name="alunos pardos federal segundo grau escola particular sem acao afirmativa"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -956,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS176"/>
+  <dimension ref="A1:BE176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1009,9 +1065,21 @@
     <col min="43" max="43" width="42.15625" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="35.3125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="35.62890625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="46.7890625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="45.9453125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="46" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="55.3125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="54.47265625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="54.5234375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="59.89453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="59" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="59.05078125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="63.734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="62.83984375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="62.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>176</v>
       </c>
@@ -1147,8 +1215,44 @@
       <c r="AS1" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="AT1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1284,8 +1388,44 @@
       <c r="AS2" s="1">
         <v>49.5</v>
       </c>
+      <c r="AT2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AU2">
+        <v>62.1</v>
+      </c>
+      <c r="AV2">
+        <v>63.3</v>
+      </c>
+      <c r="AW2">
+        <v>56.8</v>
+      </c>
+      <c r="AX2">
+        <v>57.1</v>
+      </c>
+      <c r="AY2">
+        <v>56</v>
+      </c>
+      <c r="AZ2">
+        <v>66.2</v>
+      </c>
+      <c r="BA2">
+        <v>65.5</v>
+      </c>
+      <c r="BB2">
+        <v>60</v>
+      </c>
+      <c r="BC2">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="BD2">
+        <v>64.7</v>
+      </c>
+      <c r="BE2">
+        <v>63.7</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -1421,8 +1561,44 @@
       <c r="AS3" s="1">
         <v>36.5</v>
       </c>
+      <c r="AT3">
+        <v>52.6</v>
+      </c>
+      <c r="AU3">
+        <v>48.5</v>
+      </c>
+      <c r="AV3">
+        <v>49.5</v>
+      </c>
+      <c r="AW3">
+        <v>42.7</v>
+      </c>
+      <c r="AX3">
+        <v>41</v>
+      </c>
+      <c r="AY3">
+        <v>42</v>
+      </c>
+      <c r="AZ3">
+        <v>50.15</v>
+      </c>
+      <c r="BA3">
+        <v>36.5</v>
+      </c>
+      <c r="BB3">
+        <v>49.5</v>
+      </c>
+      <c r="BC3">
+        <v>52.6</v>
+      </c>
+      <c r="BD3">
+        <v>48.5</v>
+      </c>
+      <c r="BE3">
+        <v>49.8</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -1558,8 +1734,44 @@
       <c r="AS4" s="1">
         <v>37.6</v>
       </c>
+      <c r="AT4">
+        <v>55.3</v>
+      </c>
+      <c r="AU4">
+        <v>55</v>
+      </c>
+      <c r="AV4">
+        <v>52.1</v>
+      </c>
+      <c r="AW4">
+        <v>45.9</v>
+      </c>
+      <c r="AX4">
+        <v>43.8</v>
+      </c>
+      <c r="AY4">
+        <v>45.3</v>
+      </c>
+      <c r="AZ4">
+        <v>54.6</v>
+      </c>
+      <c r="BA4">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="BB4">
+        <v>52.1</v>
+      </c>
+      <c r="BC4">
+        <v>55.3</v>
+      </c>
+      <c r="BD4">
+        <v>56.3</v>
+      </c>
+      <c r="BE4">
+        <v>52.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1581,7 +1793,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1717,8 +1929,44 @@
       <c r="AS6" s="1">
         <v>49.6</v>
       </c>
+      <c r="AT6">
+        <v>61.1</v>
+      </c>
+      <c r="AU6">
+        <v>50.7</v>
+      </c>
+      <c r="AV6">
+        <v>58.35</v>
+      </c>
+      <c r="AW6">
+        <v>50.4</v>
+      </c>
+      <c r="AX6">
+        <v>49.8</v>
+      </c>
+      <c r="AY6">
+        <v>48.25</v>
+      </c>
+      <c r="AZ6">
+        <v>53.6</v>
+      </c>
+      <c r="BA6">
+        <v>50.3</v>
+      </c>
+      <c r="BB6">
+        <v>53.55</v>
+      </c>
+      <c r="BC6">
+        <v>61.1</v>
+      </c>
+      <c r="BD6">
+        <v>52</v>
+      </c>
+      <c r="BE6">
+        <v>58.35</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -1854,8 +2102,44 @@
       <c r="AS7" s="1">
         <v>40.5</v>
       </c>
+      <c r="AT7">
+        <v>54.9</v>
+      </c>
+      <c r="AU7">
+        <v>43.5</v>
+      </c>
+      <c r="AV7">
+        <v>51.35</v>
+      </c>
+      <c r="AW7">
+        <v>36.5</v>
+      </c>
+      <c r="AX7">
+        <v>36.4</v>
+      </c>
+      <c r="AY7">
+        <v>35.5</v>
+      </c>
+      <c r="AZ7">
+        <v>46.8</v>
+      </c>
+      <c r="BA7">
+        <v>45</v>
+      </c>
+      <c r="BB7">
+        <v>46.75</v>
+      </c>
+      <c r="BC7">
+        <v>54.5</v>
+      </c>
+      <c r="BD7">
+        <v>43.5</v>
+      </c>
+      <c r="BE7">
+        <v>52.35</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -1991,8 +2275,44 @@
       <c r="AS8" s="1">
         <v>42.5</v>
       </c>
+      <c r="AT8">
+        <v>55.7</v>
+      </c>
+      <c r="AU8">
+        <v>43.6</v>
+      </c>
+      <c r="AV8">
+        <v>51.4</v>
+      </c>
+      <c r="AW8">
+        <v>39.9</v>
+      </c>
+      <c r="AX8">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="AY8">
+        <v>38.15</v>
+      </c>
+      <c r="AZ8">
+        <v>48.1</v>
+      </c>
+      <c r="BA8">
+        <v>45</v>
+      </c>
+      <c r="BB8">
+        <v>49.5</v>
+      </c>
+      <c r="BC8">
+        <v>55.6</v>
+      </c>
+      <c r="BD8">
+        <v>43.6</v>
+      </c>
+      <c r="BE8">
+        <v>52.1</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -2014,7 +2334,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -2150,8 +2470,44 @@
       <c r="AS10" s="1">
         <v>58.2</v>
       </c>
+      <c r="AT10">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AU10">
+        <v>61.4</v>
+      </c>
+      <c r="AV10">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="AW10">
+        <v>59.7</v>
+      </c>
+      <c r="AX10">
+        <v>57.8</v>
+      </c>
+      <c r="AY10">
+        <v>58.35</v>
+      </c>
+      <c r="AZ10">
+        <v>70.3</v>
+      </c>
+      <c r="BA10">
+        <v>65.2</v>
+      </c>
+      <c r="BB10">
+        <v>66.5</v>
+      </c>
+      <c r="BC10">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="BD10">
+        <v>61.4</v>
+      </c>
+      <c r="BE10">
+        <v>67.900000000000006</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -2287,8 +2643,44 @@
       <c r="AS11" s="1">
         <v>43.75</v>
       </c>
+      <c r="AT11">
+        <v>51.5</v>
+      </c>
+      <c r="AU11">
+        <v>44.5</v>
+      </c>
+      <c r="AV11">
+        <v>49.5</v>
+      </c>
+      <c r="AW11">
+        <v>33.4</v>
+      </c>
+      <c r="AX11">
+        <v>30.3</v>
+      </c>
+      <c r="AY11">
+        <v>30.3</v>
+      </c>
+      <c r="AZ11">
+        <v>54.25</v>
+      </c>
+      <c r="BA11">
+        <v>49</v>
+      </c>
+      <c r="BB11">
+        <v>48.5</v>
+      </c>
+      <c r="BC11">
+        <v>51.5</v>
+      </c>
+      <c r="BD11">
+        <v>45.5</v>
+      </c>
+      <c r="BE11">
+        <v>49.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -2424,8 +2816,44 @@
       <c r="AS12" s="1">
         <v>50.25</v>
       </c>
+      <c r="AT12">
+        <v>55.25</v>
+      </c>
+      <c r="AU12">
+        <v>48</v>
+      </c>
+      <c r="AV12">
+        <v>54</v>
+      </c>
+      <c r="AW12">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="AX12">
+        <v>36.1</v>
+      </c>
+      <c r="AY12">
+        <v>37.5</v>
+      </c>
+      <c r="AZ12">
+        <v>57.3</v>
+      </c>
+      <c r="BA12">
+        <v>55</v>
+      </c>
+      <c r="BB12">
+        <v>53.8</v>
+      </c>
+      <c r="BC12">
+        <v>55.2</v>
+      </c>
+      <c r="BD12">
+        <v>49.8</v>
+      </c>
+      <c r="BE12">
+        <v>54.1</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -2447,7 +2875,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -2583,8 +3011,44 @@
       <c r="AS14" s="1">
         <v>64</v>
       </c>
+      <c r="AT14">
+        <v>61.3</v>
+      </c>
+      <c r="AU14">
+        <v>56.3</v>
+      </c>
+      <c r="AV14">
+        <v>55.55</v>
+      </c>
+      <c r="AW14">
+        <v>51.4</v>
+      </c>
+      <c r="AX14">
+        <v>51.55</v>
+      </c>
+      <c r="AY14">
+        <v>50.7</v>
+      </c>
+      <c r="AZ14">
+        <v>53</v>
+      </c>
+      <c r="BA14">
+        <v>44.6</v>
+      </c>
+      <c r="BB14">
+        <v>55.6</v>
+      </c>
+      <c r="BC14">
+        <v>61.85</v>
+      </c>
+      <c r="BD14">
+        <v>56.95</v>
+      </c>
+      <c r="BE14">
+        <v>59.4</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -2720,8 +3184,44 @@
       <c r="AS15" s="1">
         <v>25.4</v>
       </c>
+      <c r="AT15">
+        <v>57.7</v>
+      </c>
+      <c r="AU15">
+        <v>53.7</v>
+      </c>
+      <c r="AV15">
+        <v>54.7</v>
+      </c>
+      <c r="AW15">
+        <v>50.2</v>
+      </c>
+      <c r="AX15">
+        <v>47.8</v>
+      </c>
+      <c r="AY15">
+        <v>45.7</v>
+      </c>
+      <c r="AZ15">
+        <v>45.3</v>
+      </c>
+      <c r="BA15">
+        <v>57.2</v>
+      </c>
+      <c r="BB15">
+        <v>49.3</v>
+      </c>
+      <c r="BC15">
+        <v>58.2</v>
+      </c>
+      <c r="BD15">
+        <v>53.7</v>
+      </c>
+      <c r="BE15">
+        <v>54.7</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -2857,8 +3357,44 @@
       <c r="AS16" s="1">
         <v>35.1</v>
       </c>
+      <c r="AT16">
+        <v>58.3</v>
+      </c>
+      <c r="AU16">
+        <v>51.8</v>
+      </c>
+      <c r="AV16">
+        <v>55.6</v>
+      </c>
+      <c r="AW16">
+        <v>49.7</v>
+      </c>
+      <c r="AX16">
+        <v>50.95</v>
+      </c>
+      <c r="AY16">
+        <v>46.5</v>
+      </c>
+      <c r="AZ16">
+        <v>50.7</v>
+      </c>
+      <c r="BA16">
+        <v>53.5</v>
+      </c>
+      <c r="BB16">
+        <v>51.1</v>
+      </c>
+      <c r="BC16">
+        <v>58.6</v>
+      </c>
+      <c r="BD16">
+        <v>52.95</v>
+      </c>
+      <c r="BE16">
+        <v>58.8</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>56</v>
       </c>
@@ -2994,8 +3530,44 @@
       <c r="AS18">
         <v>62.3</v>
       </c>
+      <c r="AT18">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="AU18">
+        <v>67.5</v>
+      </c>
+      <c r="AV18">
+        <v>65.75</v>
+      </c>
+      <c r="AW18">
+        <v>61.2</v>
+      </c>
+      <c r="AX18">
+        <v>58.4</v>
+      </c>
+      <c r="AY18">
+        <v>60</v>
+      </c>
+      <c r="AZ18">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="BA18">
+        <v>62.4</v>
+      </c>
+      <c r="BB18">
+        <v>64.95</v>
+      </c>
+      <c r="BC18">
+        <v>68.8</v>
+      </c>
+      <c r="BD18">
+        <v>67.5</v>
+      </c>
+      <c r="BE18">
+        <v>65.75</v>
+      </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -3131,8 +3703,44 @@
       <c r="AS19">
         <v>47.9</v>
       </c>
+      <c r="AT19">
+        <v>53.8</v>
+      </c>
+      <c r="AU19">
+        <v>48.65</v>
+      </c>
+      <c r="AV19">
+        <v>50.15</v>
+      </c>
+      <c r="AW19">
+        <v>40</v>
+      </c>
+      <c r="AX19">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AY19">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AZ19">
+        <v>50.4</v>
+      </c>
+      <c r="BA19">
+        <v>38.65</v>
+      </c>
+      <c r="BB19">
+        <v>49.5</v>
+      </c>
+      <c r="BC19">
+        <v>53.8</v>
+      </c>
+      <c r="BD19">
+        <v>48.4</v>
+      </c>
+      <c r="BE19">
+        <v>50.15</v>
+      </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3268,8 +3876,44 @@
       <c r="AS20">
         <v>51.3</v>
       </c>
+      <c r="AT20">
+        <v>57.2</v>
+      </c>
+      <c r="AU20">
+        <v>53.25</v>
+      </c>
+      <c r="AV20">
+        <v>54.15</v>
+      </c>
+      <c r="AW20">
+        <v>45.3</v>
+      </c>
+      <c r="AX20">
+        <v>44.1</v>
+      </c>
+      <c r="AY20">
+        <v>42.7</v>
+      </c>
+      <c r="AZ20">
+        <v>53.9</v>
+      </c>
+      <c r="BA20">
+        <v>42.3</v>
+      </c>
+      <c r="BB20">
+        <v>54.15</v>
+      </c>
+      <c r="BC20">
+        <v>57.3</v>
+      </c>
+      <c r="BD20">
+        <v>52.25</v>
+      </c>
+      <c r="BE20">
+        <v>54.15</v>
+      </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -3405,8 +4049,44 @@
       <c r="AS22">
         <v>59.2</v>
       </c>
+      <c r="AT22">
+        <v>64.45</v>
+      </c>
+      <c r="AU22">
+        <v>58.8</v>
+      </c>
+      <c r="AV22">
+        <v>62.9</v>
+      </c>
+      <c r="AW22">
+        <v>55.8</v>
+      </c>
+      <c r="AX22">
+        <v>50.9</v>
+      </c>
+      <c r="AY22">
+        <v>52.8</v>
+      </c>
+      <c r="AZ22">
+        <v>64.45</v>
+      </c>
+      <c r="BA22">
+        <v>55.9</v>
+      </c>
+      <c r="BB22">
+        <v>61.3</v>
+      </c>
+      <c r="BC22">
+        <v>64.5</v>
+      </c>
+      <c r="BD22">
+        <v>60.5</v>
+      </c>
+      <c r="BE22">
+        <v>63.1</v>
+      </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -3542,8 +4222,44 @@
       <c r="AS23">
         <v>45.75</v>
       </c>
+      <c r="AT23">
+        <v>52.8</v>
+      </c>
+      <c r="AU23">
+        <v>42.5</v>
+      </c>
+      <c r="AV23">
+        <v>48.8</v>
+      </c>
+      <c r="AW23">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AX23">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AY23">
+        <v>33.1</v>
+      </c>
+      <c r="AZ23">
+        <v>49.75</v>
+      </c>
+      <c r="BA23">
+        <v>40.6</v>
+      </c>
+      <c r="BB23">
+        <v>43.2</v>
+      </c>
+      <c r="BC23">
+        <v>52.8</v>
+      </c>
+      <c r="BD23">
+        <v>45.6</v>
+      </c>
+      <c r="BE23">
+        <v>48.8</v>
+      </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -3679,8 +4395,44 @@
       <c r="AS24">
         <v>50.15</v>
       </c>
+      <c r="AT24">
+        <v>55.3</v>
+      </c>
+      <c r="AU24">
+        <v>47.6</v>
+      </c>
+      <c r="AV24">
+        <v>51.9</v>
+      </c>
+      <c r="AW24">
+        <v>41.9</v>
+      </c>
+      <c r="AX24">
+        <v>38.6</v>
+      </c>
+      <c r="AY24">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AZ24">
+        <v>53.25</v>
+      </c>
+      <c r="BA24">
+        <v>45.3</v>
+      </c>
+      <c r="BB24">
+        <v>48.7</v>
+      </c>
+      <c r="BC24">
+        <v>55.3</v>
+      </c>
+      <c r="BD24">
+        <v>49.1</v>
+      </c>
+      <c r="BE24">
+        <v>51.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -3816,8 +4568,44 @@
       <c r="AS26">
         <v>56.55</v>
       </c>
+      <c r="AT26">
+        <v>64.3</v>
+      </c>
+      <c r="AU26">
+        <v>62.8</v>
+      </c>
+      <c r="AV26">
+        <v>62</v>
+      </c>
+      <c r="AW26">
+        <v>65.5</v>
+      </c>
+      <c r="AX26">
+        <v>57.1</v>
+      </c>
+      <c r="AY26">
+        <v>72.3</v>
+      </c>
+      <c r="AZ26">
+        <v>60.45</v>
+      </c>
+      <c r="BA26">
+        <v>55.4</v>
+      </c>
+      <c r="BB26">
+        <v>63.7</v>
+      </c>
+      <c r="BC26">
+        <v>64.3</v>
+      </c>
+      <c r="BD26">
+        <v>63.9</v>
+      </c>
+      <c r="BE26">
+        <v>62.55</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -3953,8 +4741,44 @@
       <c r="AS27">
         <v>45.6</v>
       </c>
+      <c r="AT27">
+        <v>50.6</v>
+      </c>
+      <c r="AU27">
+        <v>45.8</v>
+      </c>
+      <c r="AV27">
+        <v>51.6</v>
+      </c>
+      <c r="AW27">
+        <v>48.7</v>
+      </c>
+      <c r="AX27">
+        <v>42.5</v>
+      </c>
+      <c r="AY27">
+        <v>50.1</v>
+      </c>
+      <c r="AZ27">
+        <v>48.85</v>
+      </c>
+      <c r="BA27">
+        <v>43.3</v>
+      </c>
+      <c r="BB27">
+        <v>45</v>
+      </c>
+      <c r="BC27">
+        <v>50.6</v>
+      </c>
+      <c r="BD27">
+        <v>46.25</v>
+      </c>
+      <c r="BE27">
+        <v>52.3</v>
+      </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>64</v>
       </c>
@@ -4090,8 +4914,44 @@
       <c r="AS28">
         <v>45.5</v>
       </c>
+      <c r="AT28">
+        <v>53.95</v>
+      </c>
+      <c r="AU28">
+        <v>51.7</v>
+      </c>
+      <c r="AV28">
+        <v>51.8</v>
+      </c>
+      <c r="AW28">
+        <v>51</v>
+      </c>
+      <c r="AX28">
+        <v>48.6</v>
+      </c>
+      <c r="AY28">
+        <v>58.4</v>
+      </c>
+      <c r="AZ28">
+        <v>50.95</v>
+      </c>
+      <c r="BA28">
+        <v>47</v>
+      </c>
+      <c r="BB28">
+        <v>48.5</v>
+      </c>
+      <c r="BC28">
+        <v>53.95</v>
+      </c>
+      <c r="BD28">
+        <v>52.45</v>
+      </c>
+      <c r="BE28">
+        <v>52</v>
+      </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +5087,44 @@
       <c r="AS30">
         <v>46.8</v>
       </c>
+      <c r="AT30">
+        <v>60</v>
+      </c>
+      <c r="AU30">
+        <v>53.3</v>
+      </c>
+      <c r="AV30">
+        <v>56.6</v>
+      </c>
+      <c r="AW30">
+        <v>55.2</v>
+      </c>
+      <c r="AX30">
+        <v>56.1</v>
+      </c>
+      <c r="AY30">
+        <v>51.75</v>
+      </c>
+      <c r="AZ30">
+        <v>57.3</v>
+      </c>
+      <c r="BA30">
+        <v>54.5</v>
+      </c>
+      <c r="BB30">
+        <v>62.8</v>
+      </c>
+      <c r="BC30">
+        <v>60</v>
+      </c>
+      <c r="BD30">
+        <v>52.9</v>
+      </c>
+      <c r="BE30">
+        <v>56.3</v>
+      </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4364,8 +5260,44 @@
       <c r="AS31">
         <v>36.5</v>
       </c>
+      <c r="AT31">
+        <v>46.1</v>
+      </c>
+      <c r="AU31">
+        <v>41.9</v>
+      </c>
+      <c r="AV31">
+        <v>40.4</v>
+      </c>
+      <c r="AW31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AX31">
+        <v>33.35</v>
+      </c>
+      <c r="AY31">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AZ31">
+        <v>43.9</v>
+      </c>
+      <c r="BA31">
+        <v>30.8</v>
+      </c>
+      <c r="BB31">
+        <v>38.4</v>
+      </c>
+      <c r="BC31">
+        <v>46.5</v>
+      </c>
+      <c r="BD31">
+        <v>42.4</v>
+      </c>
+      <c r="BE31">
+        <v>40.4</v>
+      </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -4501,8 +5433,44 @@
       <c r="AS32">
         <v>39.1</v>
       </c>
+      <c r="AT32">
+        <v>50.3</v>
+      </c>
+      <c r="AU32">
+        <v>47.5</v>
+      </c>
+      <c r="AV32">
+        <v>43.4</v>
+      </c>
+      <c r="AW32">
+        <v>38.75</v>
+      </c>
+      <c r="AX32">
+        <v>39.6</v>
+      </c>
+      <c r="AY32">
+        <v>37.65</v>
+      </c>
+      <c r="AZ32">
+        <v>48.4</v>
+      </c>
+      <c r="BA32">
+        <v>39.1</v>
+      </c>
+      <c r="BB32">
+        <v>44.2</v>
+      </c>
+      <c r="BC32">
+        <v>50.3</v>
+      </c>
+      <c r="BD32">
+        <v>47.9</v>
+      </c>
+      <c r="BE32">
+        <v>43.4</v>
+      </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4638,8 +5606,44 @@
       <c r="AS34">
         <v>52.25</v>
       </c>
+      <c r="AT34">
+        <v>57.3</v>
+      </c>
+      <c r="AU34">
+        <v>51.2</v>
+      </c>
+      <c r="AV34">
+        <v>56.6</v>
+      </c>
+      <c r="AW34">
+        <v>49.6</v>
+      </c>
+      <c r="AX34">
+        <v>50.3</v>
+      </c>
+      <c r="AY34">
+        <v>49</v>
+      </c>
+      <c r="AZ34">
+        <v>54.2</v>
+      </c>
+      <c r="BA34">
+        <v>54.6</v>
+      </c>
+      <c r="BB34">
+        <v>58.2</v>
+      </c>
+      <c r="BC34">
+        <v>57.4</v>
+      </c>
+      <c r="BD34">
+        <v>51</v>
+      </c>
+      <c r="BE34">
+        <v>56.6</v>
+      </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -4775,8 +5779,44 @@
       <c r="AS35">
         <v>45.6</v>
       </c>
+      <c r="AT35">
+        <v>52.1</v>
+      </c>
+      <c r="AU35">
+        <v>46.8</v>
+      </c>
+      <c r="AV35">
+        <v>51</v>
+      </c>
+      <c r="AW35">
+        <v>40.5</v>
+      </c>
+      <c r="AX35">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AY35">
+        <v>40</v>
+      </c>
+      <c r="AZ35">
+        <v>50.2</v>
+      </c>
+      <c r="BA35">
+        <v>42.5</v>
+      </c>
+      <c r="BB35">
+        <v>50.95</v>
+      </c>
+      <c r="BC35">
+        <v>52.1</v>
+      </c>
+      <c r="BD35">
+        <v>46.3</v>
+      </c>
+      <c r="BE35">
+        <v>51.1</v>
+      </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -4912,8 +5952,44 @@
       <c r="AS36">
         <v>46.7</v>
       </c>
+      <c r="AT36">
+        <v>53.6</v>
+      </c>
+      <c r="AU36">
+        <v>47.25</v>
+      </c>
+      <c r="AV36">
+        <v>52.9</v>
+      </c>
+      <c r="AW36">
+        <v>42.5</v>
+      </c>
+      <c r="AX36">
+        <v>42.4</v>
+      </c>
+      <c r="AY36">
+        <v>42.2</v>
+      </c>
+      <c r="AZ36">
+        <v>51.3</v>
+      </c>
+      <c r="BA36">
+        <v>46.1</v>
+      </c>
+      <c r="BB36">
+        <v>52.5</v>
+      </c>
+      <c r="BC36">
+        <v>53.7</v>
+      </c>
+      <c r="BD36">
+        <v>47</v>
+      </c>
+      <c r="BE36">
+        <v>52.9</v>
+      </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -5049,8 +6125,44 @@
       <c r="AS38">
         <v>81.599999999999994</v>
       </c>
+      <c r="AT38">
+        <v>71.3</v>
+      </c>
+      <c r="AU38">
+        <v>66.8</v>
+      </c>
+      <c r="AV38">
+        <v>71.7</v>
+      </c>
+      <c r="AW38">
+        <v>61.8</v>
+      </c>
+      <c r="AX38">
+        <v>61.25</v>
+      </c>
+      <c r="AY38">
+        <v>59.7</v>
+      </c>
+      <c r="AZ38">
+        <v>73</v>
+      </c>
+      <c r="BA38">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="BB38">
+        <v>71.7</v>
+      </c>
+      <c r="BC38">
+        <v>71.2</v>
+      </c>
+      <c r="BD38">
+        <v>66.5</v>
+      </c>
+      <c r="BE38">
+        <v>71.8</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -5186,8 +6298,44 @@
       <c r="AS39">
         <v>43.75</v>
       </c>
+      <c r="AT39">
+        <v>56.7</v>
+      </c>
+      <c r="AU39">
+        <v>48.5</v>
+      </c>
+      <c r="AV39">
+        <v>49.7</v>
+      </c>
+      <c r="AW39">
+        <v>38</v>
+      </c>
+      <c r="AX39">
+        <v>35.5</v>
+      </c>
+      <c r="AY39">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AZ39">
+        <v>54.7</v>
+      </c>
+      <c r="BA39">
+        <v>47.5</v>
+      </c>
+      <c r="BB39">
+        <v>53.5</v>
+      </c>
+      <c r="BC39">
+        <v>56.7</v>
+      </c>
+      <c r="BD39">
+        <v>47</v>
+      </c>
+      <c r="BE39">
+        <v>49.95</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -5323,8 +6471,44 @@
       <c r="AS40">
         <v>53.3</v>
       </c>
+      <c r="AT40">
+        <v>60.2</v>
+      </c>
+      <c r="AU40">
+        <v>54</v>
+      </c>
+      <c r="AV40">
+        <v>54.1</v>
+      </c>
+      <c r="AW40">
+        <v>43.7</v>
+      </c>
+      <c r="AX40">
+        <v>42.5</v>
+      </c>
+      <c r="AY40">
+        <v>41.3</v>
+      </c>
+      <c r="AZ40">
+        <v>59.4</v>
+      </c>
+      <c r="BA40">
+        <v>54.7</v>
+      </c>
+      <c r="BB40">
+        <v>56.45</v>
+      </c>
+      <c r="BC40">
+        <v>60.2</v>
+      </c>
+      <c r="BD40">
+        <v>53.7</v>
+      </c>
+      <c r="BE40">
+        <v>54.25</v>
+      </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>74</v>
       </c>
@@ -5460,8 +6644,44 @@
       <c r="AS42">
         <v>69.150000000000006</v>
       </c>
+      <c r="AT42">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="AU42">
+        <v>66</v>
+      </c>
+      <c r="AV42">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AW42">
+        <v>58.85</v>
+      </c>
+      <c r="AX42">
+        <v>54.05</v>
+      </c>
+      <c r="AY42">
+        <v>57.5</v>
+      </c>
+      <c r="AZ42">
+        <v>70.5</v>
+      </c>
+      <c r="BA42">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="BB42">
+        <v>67.2</v>
+      </c>
+      <c r="BC42">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="BD42">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="BE42">
+        <v>70.400000000000006</v>
+      </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>75</v>
       </c>
@@ -5597,8 +6817,44 @@
       <c r="AS43">
         <v>53.85</v>
       </c>
+      <c r="AT43">
+        <v>51.7</v>
+      </c>
+      <c r="AU43">
+        <v>48</v>
+      </c>
+      <c r="AV43">
+        <v>52.2</v>
+      </c>
+      <c r="AW43">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AX43">
+        <v>33.25</v>
+      </c>
+      <c r="AY43">
+        <v>35.5</v>
+      </c>
+      <c r="AZ43">
+        <v>50.2</v>
+      </c>
+      <c r="BA43">
+        <v>41.5</v>
+      </c>
+      <c r="BB43">
+        <v>50</v>
+      </c>
+      <c r="BC43">
+        <v>51.7</v>
+      </c>
+      <c r="BD43">
+        <v>48</v>
+      </c>
+      <c r="BE43">
+        <v>52.2</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -5734,8 +6990,44 @@
       <c r="AS44">
         <v>52.5</v>
       </c>
+      <c r="AT44">
+        <v>55.9</v>
+      </c>
+      <c r="AU44">
+        <v>50.7</v>
+      </c>
+      <c r="AV44">
+        <v>56.3</v>
+      </c>
+      <c r="AW44">
+        <v>43.1</v>
+      </c>
+      <c r="AX44">
+        <v>37.9</v>
+      </c>
+      <c r="AY44">
+        <v>41.2</v>
+      </c>
+      <c r="AZ44">
+        <v>56.05</v>
+      </c>
+      <c r="BA44">
+        <v>49.9</v>
+      </c>
+      <c r="BB44">
+        <v>54.1</v>
+      </c>
+      <c r="BC44">
+        <v>55.9</v>
+      </c>
+      <c r="BD44">
+        <v>51.3</v>
+      </c>
+      <c r="BE44">
+        <v>56.3</v>
+      </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -5871,8 +7163,44 @@
       <c r="AS46">
         <v>52.55</v>
       </c>
+      <c r="AT46">
+        <v>66.3</v>
+      </c>
+      <c r="AU46">
+        <v>68.55</v>
+      </c>
+      <c r="AV46">
+        <v>65.25</v>
+      </c>
+      <c r="AW46">
+        <v>57.3</v>
+      </c>
+      <c r="AX46">
+        <v>64.5</v>
+      </c>
+      <c r="AY46">
+        <v>63.35</v>
+      </c>
+      <c r="AZ46">
+        <v>63.15</v>
+      </c>
+      <c r="BA46">
+        <v>39.6</v>
+      </c>
+      <c r="BB46">
+        <v>60.4</v>
+      </c>
+      <c r="BC46">
+        <v>66.2</v>
+      </c>
+      <c r="BD46">
+        <v>67.7</v>
+      </c>
+      <c r="BE46">
+        <v>65</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -6008,8 +7336,44 @@
       <c r="AS47">
         <v>35.700000000000003</v>
       </c>
+      <c r="AT47">
+        <v>51.45</v>
+      </c>
+      <c r="AU47">
+        <v>47.15</v>
+      </c>
+      <c r="AV47">
+        <v>45.6</v>
+      </c>
+      <c r="AW47">
+        <v>45.2</v>
+      </c>
+      <c r="AX47">
+        <v>38</v>
+      </c>
+      <c r="AY47">
+        <v>39.5</v>
+      </c>
+      <c r="AZ47">
+        <v>54.1</v>
+      </c>
+      <c r="BA47">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="BB47">
+        <v>46.1</v>
+      </c>
+      <c r="BC47">
+        <v>51.45</v>
+      </c>
+      <c r="BD47">
+        <v>45</v>
+      </c>
+      <c r="BE47">
+        <v>46</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -6145,8 +7509,44 @@
       <c r="AS48">
         <v>37.549999999999997</v>
       </c>
+      <c r="AT48">
+        <v>55.1</v>
+      </c>
+      <c r="AU48">
+        <v>52.65</v>
+      </c>
+      <c r="AV48">
+        <v>50.75</v>
+      </c>
+      <c r="AW48">
+        <v>49.3</v>
+      </c>
+      <c r="AX48">
+        <v>42.4</v>
+      </c>
+      <c r="AY48">
+        <v>44.9</v>
+      </c>
+      <c r="AZ48">
+        <v>55.75</v>
+      </c>
+      <c r="BA48">
+        <v>40.5</v>
+      </c>
+      <c r="BB48">
+        <v>49.45</v>
+      </c>
+      <c r="BC48">
+        <v>55.1</v>
+      </c>
+      <c r="BD48">
+        <v>50</v>
+      </c>
+      <c r="BE48">
+        <v>50.8</v>
+      </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -6282,8 +7682,44 @@
       <c r="AS50">
         <v>0</v>
       </c>
+      <c r="AT50">
+        <v>72</v>
+      </c>
+      <c r="AU50">
+        <v>72.25</v>
+      </c>
+      <c r="AV50">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="AW50">
+        <v>62.2</v>
+      </c>
+      <c r="AX50">
+        <v>60.7</v>
+      </c>
+      <c r="AY50">
+        <v>61.3</v>
+      </c>
+      <c r="AZ50">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="BA50">
+        <v>55.05</v>
+      </c>
+      <c r="BB50">
+        <v>75.8</v>
+      </c>
+      <c r="BC50">
+        <v>72.3</v>
+      </c>
+      <c r="BD50">
+        <v>72.25</v>
+      </c>
+      <c r="BE50">
+        <v>70.599999999999994</v>
+      </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -6419,8 +7855,44 @@
       <c r="AS51">
         <v>0</v>
       </c>
+      <c r="AT51">
+        <v>52.35</v>
+      </c>
+      <c r="AU51">
+        <v>43.85</v>
+      </c>
+      <c r="AV51">
+        <v>47.3</v>
+      </c>
+      <c r="AW51">
+        <v>37.6</v>
+      </c>
+      <c r="AX51">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AY51">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AZ51">
+        <v>50.3</v>
+      </c>
+      <c r="BA51">
+        <v>25.6</v>
+      </c>
+      <c r="BB51">
+        <v>48.2</v>
+      </c>
+      <c r="BC51">
+        <v>52.7</v>
+      </c>
+      <c r="BD51">
+        <v>43.85</v>
+      </c>
+      <c r="BE51">
+        <v>47.3</v>
+      </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>82</v>
       </c>
@@ -6556,8 +8028,44 @@
       <c r="AS52">
         <v>0</v>
       </c>
+      <c r="AT52">
+        <v>57.55</v>
+      </c>
+      <c r="AU52">
+        <v>50.75</v>
+      </c>
+      <c r="AV52">
+        <v>54.3</v>
+      </c>
+      <c r="AW52">
+        <v>43.1</v>
+      </c>
+      <c r="AX52">
+        <v>44.3</v>
+      </c>
+      <c r="AY52">
+        <v>39.6</v>
+      </c>
+      <c r="AZ52">
+        <v>57.25</v>
+      </c>
+      <c r="BA52">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="BB52">
+        <v>55.1</v>
+      </c>
+      <c r="BC52">
+        <v>57.6</v>
+      </c>
+      <c r="BD52">
+        <v>50.75</v>
+      </c>
+      <c r="BE52">
+        <v>54.3</v>
+      </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -6693,8 +8201,44 @@
       <c r="AS54">
         <v>75.7</v>
       </c>
+      <c r="AT54">
+        <v>72.5</v>
+      </c>
+      <c r="AU54">
+        <v>63.1</v>
+      </c>
+      <c r="AV54">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="AW54">
+        <v>59.3</v>
+      </c>
+      <c r="AX54">
+        <v>55.35</v>
+      </c>
+      <c r="AY54">
+        <v>60.25</v>
+      </c>
+      <c r="AZ54">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="BA54">
+        <v>58.15</v>
+      </c>
+      <c r="BB54">
+        <v>71.2</v>
+      </c>
+      <c r="BC54">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="BD54">
+        <v>63.1</v>
+      </c>
+      <c r="BE54">
+        <v>69.45</v>
+      </c>
     </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -6830,8 +8374,44 @@
       <c r="AS55">
         <v>54.7</v>
       </c>
+      <c r="AT55">
+        <v>50.9</v>
+      </c>
+      <c r="AU55">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AV55">
+        <v>44.05</v>
+      </c>
+      <c r="AW55">
+        <v>29.4</v>
+      </c>
+      <c r="AX55">
+        <v>26.2</v>
+      </c>
+      <c r="AY55">
+        <v>28.45</v>
+      </c>
+      <c r="AZ55">
+        <v>47.75</v>
+      </c>
+      <c r="BA55">
+        <v>44.35</v>
+      </c>
+      <c r="BB55">
+        <v>50</v>
+      </c>
+      <c r="BC55">
+        <v>51</v>
+      </c>
+      <c r="BD55">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BE55">
+        <v>44.9</v>
+      </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -6967,8 +8547,44 @@
       <c r="AS56">
         <v>60</v>
       </c>
+      <c r="AT56">
+        <v>56.9</v>
+      </c>
+      <c r="AU56">
+        <v>45.5</v>
+      </c>
+      <c r="AV56">
+        <v>50.7</v>
+      </c>
+      <c r="AW56">
+        <v>37.1</v>
+      </c>
+      <c r="AX56">
+        <v>34.9</v>
+      </c>
+      <c r="AY56">
+        <v>36.5</v>
+      </c>
+      <c r="AZ56">
+        <v>53.55</v>
+      </c>
+      <c r="BA56">
+        <v>47.85</v>
+      </c>
+      <c r="BB56">
+        <v>52.4</v>
+      </c>
+      <c r="BC56">
+        <v>56.9</v>
+      </c>
+      <c r="BD56">
+        <v>45.5</v>
+      </c>
+      <c r="BE56">
+        <v>50.9</v>
+      </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>86</v>
       </c>
@@ -7104,8 +8720,44 @@
       <c r="AS58">
         <v>59.6</v>
       </c>
+      <c r="AT58">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="AU58">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AV58">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AW58">
+        <v>59.5</v>
+      </c>
+      <c r="AX58">
+        <v>56</v>
+      </c>
+      <c r="AY58">
+        <v>58.35</v>
+      </c>
+      <c r="AZ58">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="BA58">
+        <v>53.4</v>
+      </c>
+      <c r="BB58">
+        <v>67.8</v>
+      </c>
+      <c r="BC58">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="BD58">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="BE58">
+        <v>70.3</v>
+      </c>
     </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>87</v>
       </c>
@@ -7241,8 +8893,44 @@
       <c r="AS59">
         <v>40</v>
       </c>
+      <c r="AT59">
+        <v>55</v>
+      </c>
+      <c r="AU59">
+        <v>44.5</v>
+      </c>
+      <c r="AV59">
+        <v>51.25</v>
+      </c>
+      <c r="AW59">
+        <v>38</v>
+      </c>
+      <c r="AX59">
+        <v>34.4</v>
+      </c>
+      <c r="AY59">
+        <v>35.9</v>
+      </c>
+      <c r="AZ59">
+        <v>46.5</v>
+      </c>
+      <c r="BA59">
+        <v>56.7</v>
+      </c>
+      <c r="BB59">
+        <v>49</v>
+      </c>
+      <c r="BC59">
+        <v>55</v>
+      </c>
+      <c r="BD59">
+        <v>44.5</v>
+      </c>
+      <c r="BE59">
+        <v>51.5</v>
+      </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -7378,8 +9066,44 @@
       <c r="AS60">
         <v>48.5</v>
       </c>
+      <c r="AT60">
+        <v>59</v>
+      </c>
+      <c r="AU60">
+        <v>50.3</v>
+      </c>
+      <c r="AV60">
+        <v>55.2</v>
+      </c>
+      <c r="AW60">
+        <v>43.2</v>
+      </c>
+      <c r="AX60">
+        <v>40.4</v>
+      </c>
+      <c r="AY60">
+        <v>41.35</v>
+      </c>
+      <c r="AZ60">
+        <v>51.5</v>
+      </c>
+      <c r="BA60">
+        <v>55.9</v>
+      </c>
+      <c r="BB60">
+        <v>53.9</v>
+      </c>
+      <c r="BC60">
+        <v>59</v>
+      </c>
+      <c r="BD60">
+        <v>51.5</v>
+      </c>
+      <c r="BE60">
+        <v>55.2</v>
+      </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -7515,8 +9239,44 @@
       <c r="AS62">
         <v>70.5</v>
       </c>
+      <c r="AT62">
+        <v>67.150000000000006</v>
+      </c>
+      <c r="AU62">
+        <v>61.6</v>
+      </c>
+      <c r="AV62">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="AW62">
+        <v>59.6</v>
+      </c>
+      <c r="AX62">
+        <v>58.75</v>
+      </c>
+      <c r="AY62">
+        <v>58.6</v>
+      </c>
+      <c r="AZ62">
+        <v>65</v>
+      </c>
+      <c r="BA62">
+        <v>50.5</v>
+      </c>
+      <c r="BB62">
+        <v>63.85</v>
+      </c>
+      <c r="BC62">
+        <v>67.2</v>
+      </c>
+      <c r="BD62">
+        <v>61.7</v>
+      </c>
+      <c r="BE62">
+        <v>65.900000000000006</v>
+      </c>
     </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -7652,8 +9412,44 @@
       <c r="AS63">
         <v>45.7</v>
       </c>
+      <c r="AT63">
+        <v>46.2</v>
+      </c>
+      <c r="AU63">
+        <v>39.4</v>
+      </c>
+      <c r="AV63">
+        <v>45.2</v>
+      </c>
+      <c r="AW63">
+        <v>34</v>
+      </c>
+      <c r="AX63">
+        <v>30.6</v>
+      </c>
+      <c r="AY63">
+        <v>30.6</v>
+      </c>
+      <c r="AZ63">
+        <v>46.7</v>
+      </c>
+      <c r="BA63">
+        <v>40.6</v>
+      </c>
+      <c r="BB63">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BC63">
+        <v>46.4</v>
+      </c>
+      <c r="BD63">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BE63">
+        <v>45.2</v>
+      </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -7789,8 +9585,44 @@
       <c r="AS64">
         <v>50.7</v>
       </c>
+      <c r="AT64">
+        <v>51.1</v>
+      </c>
+      <c r="AU64">
+        <v>46.9</v>
+      </c>
+      <c r="AV64">
+        <v>49.4</v>
+      </c>
+      <c r="AW64">
+        <v>40</v>
+      </c>
+      <c r="AX64">
+        <v>37</v>
+      </c>
+      <c r="AY64">
+        <v>38</v>
+      </c>
+      <c r="AZ64">
+        <v>50.7</v>
+      </c>
+      <c r="BA64">
+        <v>43.55</v>
+      </c>
+      <c r="BB64">
+        <v>46.2</v>
+      </c>
+      <c r="BC64">
+        <v>51.2</v>
+      </c>
+      <c r="BD64">
+        <v>46.3</v>
+      </c>
+      <c r="BE64">
+        <v>49.5</v>
+      </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -7926,8 +9758,44 @@
       <c r="AS66">
         <v>67.3</v>
       </c>
+      <c r="AT66">
+        <v>68.5</v>
+      </c>
+      <c r="AU66">
+        <v>67.7</v>
+      </c>
+      <c r="AV66">
+        <v>66.5</v>
+      </c>
+      <c r="AW66">
+        <v>58.55</v>
+      </c>
+      <c r="AX66">
+        <v>55.25</v>
+      </c>
+      <c r="AY66">
+        <v>49.7</v>
+      </c>
+      <c r="AZ66">
+        <v>68.3</v>
+      </c>
+      <c r="BA66">
+        <v>55.8</v>
+      </c>
+      <c r="BB66">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="BC66">
+        <v>68.5</v>
+      </c>
+      <c r="BD66">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="BE66">
+        <v>66.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>93</v>
       </c>
@@ -8063,8 +9931,44 @@
       <c r="AS67">
         <v>51.8</v>
       </c>
+      <c r="AT67">
+        <v>51.5</v>
+      </c>
+      <c r="AU67">
+        <v>48.8</v>
+      </c>
+      <c r="AV67">
+        <v>44.5</v>
+      </c>
+      <c r="AW67">
+        <v>43.5</v>
+      </c>
+      <c r="AX67">
+        <v>32.75</v>
+      </c>
+      <c r="AY67">
+        <v>37.4</v>
+      </c>
+      <c r="AZ67">
+        <v>50.05</v>
+      </c>
+      <c r="BA67">
+        <v>38.4</v>
+      </c>
+      <c r="BB67">
+        <v>47.15</v>
+      </c>
+      <c r="BC67">
+        <v>51.8</v>
+      </c>
+      <c r="BD67">
+        <v>49.3</v>
+      </c>
+      <c r="BE67">
+        <v>44.5</v>
+      </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -8200,8 +10104,44 @@
       <c r="AS68">
         <v>54.8</v>
       </c>
+      <c r="AT68">
+        <v>55.2</v>
+      </c>
+      <c r="AU68">
+        <v>53</v>
+      </c>
+      <c r="AV68">
+        <v>48.3</v>
+      </c>
+      <c r="AW68">
+        <v>49</v>
+      </c>
+      <c r="AX68">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AY68">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="AZ68">
+        <v>55.75</v>
+      </c>
+      <c r="BA68">
+        <v>46.4</v>
+      </c>
+      <c r="BB68">
+        <v>51</v>
+      </c>
+      <c r="BC68">
+        <v>55.2</v>
+      </c>
+      <c r="BD68">
+        <v>53.4</v>
+      </c>
+      <c r="BE68">
+        <v>48.2</v>
+      </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -8337,8 +10277,44 @@
       <c r="AS70">
         <v>61.3</v>
       </c>
+      <c r="AT70">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="AU70">
+        <v>64.8</v>
+      </c>
+      <c r="AV70">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AW70">
+        <v>60</v>
+      </c>
+      <c r="AX70">
+        <v>58.4</v>
+      </c>
+      <c r="AY70">
+        <v>59.9</v>
+      </c>
+      <c r="AZ70">
+        <v>63.7</v>
+      </c>
+      <c r="BA70">
+        <v>68.55</v>
+      </c>
+      <c r="BB70">
+        <v>62.2</v>
+      </c>
+      <c r="BC70">
+        <v>68.95</v>
+      </c>
+      <c r="BD70">
+        <v>63.8</v>
+      </c>
+      <c r="BE70">
+        <v>67.05</v>
+      </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -8474,8 +10450,44 @@
       <c r="AS71">
         <v>43.5</v>
       </c>
+      <c r="AT71">
+        <v>53</v>
+      </c>
+      <c r="AU71">
+        <v>42.5</v>
+      </c>
+      <c r="AV71">
+        <v>49.3</v>
+      </c>
+      <c r="AW71">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AX71">
+        <v>31</v>
+      </c>
+      <c r="AY71">
+        <v>34</v>
+      </c>
+      <c r="AZ71">
+        <v>51.8</v>
+      </c>
+      <c r="BA71">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="BB71">
+        <v>45</v>
+      </c>
+      <c r="BC71">
+        <v>53</v>
+      </c>
+      <c r="BD71">
+        <v>42.5</v>
+      </c>
+      <c r="BE71">
+        <v>49.4</v>
+      </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -8611,8 +10623,44 @@
       <c r="AS72">
         <v>48.7</v>
       </c>
+      <c r="AT72">
+        <v>57.5</v>
+      </c>
+      <c r="AU72">
+        <v>48.2</v>
+      </c>
+      <c r="AV72">
+        <v>53.2</v>
+      </c>
+      <c r="AW72">
+        <v>43.55</v>
+      </c>
+      <c r="AX72">
+        <v>37.5</v>
+      </c>
+      <c r="AY72">
+        <v>40</v>
+      </c>
+      <c r="AZ72">
+        <v>53.4</v>
+      </c>
+      <c r="BA72">
+        <v>44.7</v>
+      </c>
+      <c r="BB72">
+        <v>51</v>
+      </c>
+      <c r="BC72">
+        <v>57.5</v>
+      </c>
+      <c r="BD72">
+        <v>48.1</v>
+      </c>
+      <c r="BE72">
+        <v>53.25</v>
+      </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -8748,8 +10796,44 @@
       <c r="AS74">
         <v>55.1</v>
       </c>
+      <c r="AT74">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AU74">
+        <v>60.7</v>
+      </c>
+      <c r="AV74">
+        <v>70.5</v>
+      </c>
+      <c r="AW74">
+        <v>62</v>
+      </c>
+      <c r="AX74">
+        <v>63.6</v>
+      </c>
+      <c r="AY74">
+        <v>58.2</v>
+      </c>
+      <c r="AZ74">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="BA74">
+        <v>80.3</v>
+      </c>
+      <c r="BB74">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="BC74">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="BD74">
+        <v>62.3</v>
+      </c>
+      <c r="BE74">
+        <v>70.5</v>
+      </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -8885,8 +10969,44 @@
       <c r="AS75">
         <v>28.7</v>
       </c>
+      <c r="AT75">
+        <v>47</v>
+      </c>
+      <c r="AU75">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AV75">
+        <v>42.5</v>
+      </c>
+      <c r="AW75">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AX75">
+        <v>30</v>
+      </c>
+      <c r="AY75">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AZ75">
+        <v>45.5</v>
+      </c>
+      <c r="BA75">
+        <v>49</v>
+      </c>
+      <c r="BB75">
+        <v>42.5</v>
+      </c>
+      <c r="BC75">
+        <v>47</v>
+      </c>
+      <c r="BD75">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BE75">
+        <v>42.5</v>
+      </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -9022,8 +11142,44 @@
       <c r="AS76">
         <v>34.700000000000003</v>
       </c>
+      <c r="AT76">
+        <v>52.3</v>
+      </c>
+      <c r="AU76">
+        <v>44.7</v>
+      </c>
+      <c r="AV76">
+        <v>48.7</v>
+      </c>
+      <c r="AW76">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AX76">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AY76">
+        <v>39.9</v>
+      </c>
+      <c r="AZ76">
+        <v>50.75</v>
+      </c>
+      <c r="BA76">
+        <v>58.5</v>
+      </c>
+      <c r="BB76">
+        <v>48.1</v>
+      </c>
+      <c r="BC76">
+        <v>52.3</v>
+      </c>
+      <c r="BD76">
+        <v>45.1</v>
+      </c>
+      <c r="BE76">
+        <v>48.7</v>
+      </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -9159,8 +11315,44 @@
       <c r="AS78">
         <v>60.3</v>
       </c>
+      <c r="AT78">
+        <v>69.5</v>
+      </c>
+      <c r="AU78">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AV78">
+        <v>65.8</v>
+      </c>
+      <c r="AW78">
+        <v>59.3</v>
+      </c>
+      <c r="AX78">
+        <v>60.5</v>
+      </c>
+      <c r="AY78">
+        <v>57.1</v>
+      </c>
+      <c r="AZ78">
+        <v>67.25</v>
+      </c>
+      <c r="BA78">
+        <v>58.15</v>
+      </c>
+      <c r="BB78">
+        <v>70.349999999999994</v>
+      </c>
+      <c r="BC78">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="BD78">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="BE78">
+        <v>65.75</v>
+      </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -9296,8 +11488,44 @@
       <c r="AS79">
         <v>23.35</v>
       </c>
+      <c r="AT79">
+        <v>52.3</v>
+      </c>
+      <c r="AU79">
+        <v>44.8</v>
+      </c>
+      <c r="AV79">
+        <v>47.4</v>
+      </c>
+      <c r="AW79">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AX79">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AY79">
+        <v>36.9</v>
+      </c>
+      <c r="AZ79">
+        <v>51.55</v>
+      </c>
+      <c r="BA79">
+        <v>42.5</v>
+      </c>
+      <c r="BB79">
+        <v>43.4</v>
+      </c>
+      <c r="BC79">
+        <v>52.3</v>
+      </c>
+      <c r="BD79">
+        <v>44.75</v>
+      </c>
+      <c r="BE79">
+        <v>47.45</v>
+      </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>103</v>
       </c>
@@ -9433,8 +11661,44 @@
       <c r="AS80">
         <v>35.5</v>
       </c>
+      <c r="AT80">
+        <v>56.3</v>
+      </c>
+      <c r="AU80">
+        <v>51.1</v>
+      </c>
+      <c r="AV80">
+        <v>52.9</v>
+      </c>
+      <c r="AW80">
+        <v>42</v>
+      </c>
+      <c r="AX80">
+        <v>41.1</v>
+      </c>
+      <c r="AY80">
+        <v>42.3</v>
+      </c>
+      <c r="AZ80">
+        <v>55.1</v>
+      </c>
+      <c r="BA80">
+        <v>50.25</v>
+      </c>
+      <c r="BB80">
+        <v>48.8</v>
+      </c>
+      <c r="BC80">
+        <v>56.3</v>
+      </c>
+      <c r="BD80">
+        <v>51.35</v>
+      </c>
+      <c r="BE80">
+        <v>52.95</v>
+      </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>104</v>
       </c>
@@ -9570,8 +11834,44 @@
       <c r="AS82">
         <v>0</v>
       </c>
+      <c r="AT82">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AU82">
+        <v>68.95</v>
+      </c>
+      <c r="AV82">
+        <v>69.5</v>
+      </c>
+      <c r="AW82">
+        <v>62.75</v>
+      </c>
+      <c r="AX82">
+        <v>64.75</v>
+      </c>
+      <c r="AY82">
+        <v>51</v>
+      </c>
+      <c r="AZ82">
+        <v>58.1</v>
+      </c>
+      <c r="BA82">
+        <v>57.4</v>
+      </c>
+      <c r="BB82">
+        <v>63.1</v>
+      </c>
+      <c r="BC82">
+        <v>67.5</v>
+      </c>
+      <c r="BD82">
+        <v>68.95</v>
+      </c>
+      <c r="BE82">
+        <v>69.5</v>
+      </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -9707,8 +12007,44 @@
       <c r="AS83">
         <v>0</v>
       </c>
+      <c r="AT83">
+        <v>57</v>
+      </c>
+      <c r="AU83">
+        <v>27.4</v>
+      </c>
+      <c r="AV83">
+        <v>61.1</v>
+      </c>
+      <c r="AW83">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AX83">
+        <v>38.75</v>
+      </c>
+      <c r="AY83">
+        <v>31.3</v>
+      </c>
+      <c r="AZ83">
+        <v>47.6</v>
+      </c>
+      <c r="BA83">
+        <v>32.6</v>
+      </c>
+      <c r="BB83">
+        <v>49.1</v>
+      </c>
+      <c r="BC83">
+        <v>57.3</v>
+      </c>
+      <c r="BD83">
+        <v>27.4</v>
+      </c>
+      <c r="BE83">
+        <v>61.1</v>
+      </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>106</v>
       </c>
@@ -9844,8 +12180,44 @@
       <c r="AS84">
         <v>0</v>
       </c>
+      <c r="AT84">
+        <v>57.4</v>
+      </c>
+      <c r="AU84">
+        <v>39.15</v>
+      </c>
+      <c r="AV84">
+        <v>62.7</v>
+      </c>
+      <c r="AW84">
+        <v>46.15</v>
+      </c>
+      <c r="AX84">
+        <v>43.95</v>
+      </c>
+      <c r="AY84">
+        <v>37.5</v>
+      </c>
+      <c r="AZ84">
+        <v>49.9</v>
+      </c>
+      <c r="BA84">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="BB84">
+        <v>48.4</v>
+      </c>
+      <c r="BC84">
+        <v>57.4</v>
+      </c>
+      <c r="BD84">
+        <v>39.15</v>
+      </c>
+      <c r="BE84">
+        <v>62.7</v>
+      </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>107</v>
       </c>
@@ -9981,8 +12353,44 @@
       <c r="AS86">
         <v>51.85</v>
       </c>
+      <c r="AT86">
+        <v>64</v>
+      </c>
+      <c r="AU86">
+        <v>62.5</v>
+      </c>
+      <c r="AV86">
+        <v>62.7</v>
+      </c>
+      <c r="AW86">
+        <v>56.7</v>
+      </c>
+      <c r="AX86">
+        <v>55.95</v>
+      </c>
+      <c r="AY86">
+        <v>56.9</v>
+      </c>
+      <c r="AZ86">
+        <v>63.55</v>
+      </c>
+      <c r="BA86">
+        <v>53.4</v>
+      </c>
+      <c r="BB86">
+        <v>48.3</v>
+      </c>
+      <c r="BC86">
+        <v>63.8</v>
+      </c>
+      <c r="BD86">
+        <v>62.6</v>
+      </c>
+      <c r="BE86">
+        <v>63.2</v>
+      </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>108</v>
       </c>
@@ -10118,8 +12526,44 @@
       <c r="AS87">
         <v>27.25</v>
       </c>
+      <c r="AT87">
+        <v>49.1</v>
+      </c>
+      <c r="AU87">
+        <v>37.85</v>
+      </c>
+      <c r="AV87">
+        <v>40.6</v>
+      </c>
+      <c r="AW87">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="AX87">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="AY87">
+        <v>31.7</v>
+      </c>
+      <c r="AZ87">
+        <v>43.15</v>
+      </c>
+      <c r="BA87">
+        <v>28.3</v>
+      </c>
+      <c r="BB87">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="BC87">
+        <v>49.1</v>
+      </c>
+      <c r="BD87">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BE87">
+        <v>44.4</v>
+      </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -10255,8 +12699,44 @@
       <c r="AS88">
         <v>34.200000000000003</v>
       </c>
+      <c r="AT88">
+        <v>53.8</v>
+      </c>
+      <c r="AU88">
+        <v>43.85</v>
+      </c>
+      <c r="AV88">
+        <v>44.3</v>
+      </c>
+      <c r="AW88">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AX88">
+        <v>40.15</v>
+      </c>
+      <c r="AY88">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AZ88">
+        <v>48</v>
+      </c>
+      <c r="BA88">
+        <v>31.5</v>
+      </c>
+      <c r="BB88">
+        <v>37.6</v>
+      </c>
+      <c r="BC88">
+        <v>53.8</v>
+      </c>
+      <c r="BD88">
+        <v>44.1</v>
+      </c>
+      <c r="BE88">
+        <v>45.4</v>
+      </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -10392,8 +12872,44 @@
       <c r="AS90">
         <v>43.35</v>
       </c>
+      <c r="AT90">
+        <v>67.75</v>
+      </c>
+      <c r="AU90">
+        <v>67.95</v>
+      </c>
+      <c r="AV90">
+        <v>60.1</v>
+      </c>
+      <c r="AW90">
+        <v>56.55</v>
+      </c>
+      <c r="AX90">
+        <v>0</v>
+      </c>
+      <c r="AY90">
+        <v>63.9</v>
+      </c>
+      <c r="AZ90">
+        <v>56.65</v>
+      </c>
+      <c r="BA90">
+        <v>15</v>
+      </c>
+      <c r="BB90">
+        <v>45</v>
+      </c>
+      <c r="BC90">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="BD90">
+        <v>67.95</v>
+      </c>
+      <c r="BE90">
+        <v>60.1</v>
+      </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -10529,8 +13045,44 @@
       <c r="AS91">
         <v>19.850000000000001</v>
       </c>
+      <c r="AT91">
+        <v>37.15</v>
+      </c>
+      <c r="AU91">
+        <v>43.6</v>
+      </c>
+      <c r="AV91">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AW91">
+        <v>29.15</v>
+      </c>
+      <c r="AX91">
+        <v>0</v>
+      </c>
+      <c r="AY91">
+        <v>20.3</v>
+      </c>
+      <c r="AZ91">
+        <v>36.5</v>
+      </c>
+      <c r="BA91">
+        <v>9.65</v>
+      </c>
+      <c r="BB91">
+        <v>30.9</v>
+      </c>
+      <c r="BC91">
+        <v>37</v>
+      </c>
+      <c r="BD91">
+        <v>43.6</v>
+      </c>
+      <c r="BE91">
+        <v>35.4</v>
+      </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -10666,8 +13218,44 @@
       <c r="AS92">
         <v>25.7</v>
       </c>
+      <c r="AT92">
+        <v>45.25</v>
+      </c>
+      <c r="AU92">
+        <v>48.15</v>
+      </c>
+      <c r="AV92">
+        <v>40.5</v>
+      </c>
+      <c r="AW92">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="AX92">
+        <v>0</v>
+      </c>
+      <c r="AY92">
+        <v>31.2</v>
+      </c>
+      <c r="AZ92">
+        <v>43.25</v>
+      </c>
+      <c r="BA92">
+        <v>11</v>
+      </c>
+      <c r="BB92">
+        <v>34.4</v>
+      </c>
+      <c r="BC92">
+        <v>45.2</v>
+      </c>
+      <c r="BD92">
+        <v>48.15</v>
+      </c>
+      <c r="BE92">
+        <v>40.200000000000003</v>
+      </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -10803,8 +13391,44 @@
       <c r="AS94">
         <v>56.85</v>
       </c>
+      <c r="AT94">
+        <v>63.7</v>
+      </c>
+      <c r="AU94">
+        <v>52.6</v>
+      </c>
+      <c r="AV94">
+        <v>60.5</v>
+      </c>
+      <c r="AW94">
+        <v>55.7</v>
+      </c>
+      <c r="AX94">
+        <v>56.1</v>
+      </c>
+      <c r="AY94">
+        <v>58.9</v>
+      </c>
+      <c r="AZ94">
+        <v>62.3</v>
+      </c>
+      <c r="BA94">
+        <v>60.2</v>
+      </c>
+      <c r="BB94">
+        <v>55.75</v>
+      </c>
+      <c r="BC94">
+        <v>63.6</v>
+      </c>
+      <c r="BD94">
+        <v>54.15</v>
+      </c>
+      <c r="BE94">
+        <v>60.3</v>
+      </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -10940,8 +13564,44 @@
       <c r="AS95">
         <v>35.5</v>
       </c>
+      <c r="AT95">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AU95">
+        <v>35.049999999999997</v>
+      </c>
+      <c r="AV95">
+        <v>33.6</v>
+      </c>
+      <c r="AW95">
+        <v>31.3</v>
+      </c>
+      <c r="AX95">
+        <v>33</v>
+      </c>
+      <c r="AY95">
+        <v>30.4</v>
+      </c>
+      <c r="AZ95">
+        <v>40.5</v>
+      </c>
+      <c r="BA95">
+        <v>26.9</v>
+      </c>
+      <c r="BB95">
+        <v>30.9</v>
+      </c>
+      <c r="BC95">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="BD95">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="BE95">
+        <v>33.6</v>
+      </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -11077,8 +13737,44 @@
       <c r="AS96">
         <v>40</v>
       </c>
+      <c r="AT96">
+        <v>46.7</v>
+      </c>
+      <c r="AU96">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="AV96">
+        <v>41.4</v>
+      </c>
+      <c r="AW96">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="AX96">
+        <v>36.4</v>
+      </c>
+      <c r="AY96">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AZ96">
+        <v>46.1</v>
+      </c>
+      <c r="BA96">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BB96">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="BC96">
+        <v>47.5</v>
+      </c>
+      <c r="BD96">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="BE96">
+        <v>41</v>
+      </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>116</v>
       </c>
@@ -11214,8 +13910,44 @@
       <c r="AS98">
         <v>52.8</v>
       </c>
+      <c r="AT98">
+        <v>62.25</v>
+      </c>
+      <c r="AU98">
+        <v>57.5</v>
+      </c>
+      <c r="AV98">
+        <v>57.55</v>
+      </c>
+      <c r="AW98">
+        <v>63.3</v>
+      </c>
+      <c r="AX98">
+        <v>61.95</v>
+      </c>
+      <c r="AY98">
+        <v>60</v>
+      </c>
+      <c r="AZ98">
+        <v>57.2</v>
+      </c>
+      <c r="BA98">
+        <v>65.05</v>
+      </c>
+      <c r="BB98">
+        <v>60.05</v>
+      </c>
+      <c r="BC98">
+        <v>62.3</v>
+      </c>
+      <c r="BD98">
+        <v>59.55</v>
+      </c>
+      <c r="BE98">
+        <v>58.05</v>
+      </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>117</v>
       </c>
@@ -11351,8 +14083,44 @@
       <c r="AS99">
         <v>44.1</v>
       </c>
+      <c r="AT99">
+        <v>44.1</v>
+      </c>
+      <c r="AU99">
+        <v>41.5</v>
+      </c>
+      <c r="AV99">
+        <v>40.6</v>
+      </c>
+      <c r="AW99">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="AX99">
+        <v>43.8</v>
+      </c>
+      <c r="AY99">
+        <v>38.6</v>
+      </c>
+      <c r="AZ99">
+        <v>44.4</v>
+      </c>
+      <c r="BA99">
+        <v>44.1</v>
+      </c>
+      <c r="BB99">
+        <v>42.1</v>
+      </c>
+      <c r="BC99">
+        <v>44.1</v>
+      </c>
+      <c r="BD99">
+        <v>41.5</v>
+      </c>
+      <c r="BE99">
+        <v>40.700000000000003</v>
+      </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>118</v>
       </c>
@@ -11488,8 +14256,44 @@
       <c r="AS100">
         <v>48.8</v>
       </c>
+      <c r="AT100">
+        <v>49.35</v>
+      </c>
+      <c r="AU100">
+        <v>44.3</v>
+      </c>
+      <c r="AV100">
+        <v>44.9</v>
+      </c>
+      <c r="AW100">
+        <v>46.6</v>
+      </c>
+      <c r="AX100">
+        <v>49.25</v>
+      </c>
+      <c r="AY100">
+        <v>43.9</v>
+      </c>
+      <c r="AZ100">
+        <v>48.05</v>
+      </c>
+      <c r="BA100">
+        <v>50.35</v>
+      </c>
+      <c r="BB100">
+        <v>47.2</v>
+      </c>
+      <c r="BC100">
+        <v>49.4</v>
+      </c>
+      <c r="BD100">
+        <v>44.3</v>
+      </c>
+      <c r="BE100">
+        <v>45.35</v>
+      </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -11625,8 +14429,44 @@
       <c r="AS102">
         <v>55.3</v>
       </c>
+      <c r="AT102">
+        <v>63.65</v>
+      </c>
+      <c r="AU102">
+        <v>63.2</v>
+      </c>
+      <c r="AV102">
+        <v>59.75</v>
+      </c>
+      <c r="AW102">
+        <v>53.7</v>
+      </c>
+      <c r="AX102">
+        <v>53.2</v>
+      </c>
+      <c r="AY102">
+        <v>50.9</v>
+      </c>
+      <c r="AZ102">
+        <v>63.85</v>
+      </c>
+      <c r="BA102">
+        <v>61.3</v>
+      </c>
+      <c r="BB102">
+        <v>57.5</v>
+      </c>
+      <c r="BC102">
+        <v>63.7</v>
+      </c>
+      <c r="BD102">
+        <v>63.2</v>
+      </c>
+      <c r="BE102">
+        <v>60.2</v>
+      </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -11762,8 +14602,44 @@
       <c r="AS103">
         <v>41.2</v>
       </c>
+      <c r="AT103">
+        <v>45.9</v>
+      </c>
+      <c r="AU103">
+        <v>43.2</v>
+      </c>
+      <c r="AV103">
+        <v>42.5</v>
+      </c>
+      <c r="AW103">
+        <v>30.6</v>
+      </c>
+      <c r="AX103">
+        <v>32</v>
+      </c>
+      <c r="AY103">
+        <v>28.8</v>
+      </c>
+      <c r="AZ103">
+        <v>46.85</v>
+      </c>
+      <c r="BA103">
+        <v>45.4</v>
+      </c>
+      <c r="BB103">
+        <v>38.9</v>
+      </c>
+      <c r="BC103">
+        <v>46.1</v>
+      </c>
+      <c r="BD103">
+        <v>43.2</v>
+      </c>
+      <c r="BE103">
+        <v>42.7</v>
+      </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>121</v>
       </c>
@@ -11899,8 +14775,44 @@
       <c r="AS104">
         <v>42.7</v>
       </c>
+      <c r="AT104">
+        <v>49.8</v>
+      </c>
+      <c r="AU104">
+        <v>47.3</v>
+      </c>
+      <c r="AV104">
+        <v>46.55</v>
+      </c>
+      <c r="AW104">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AX104">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AY104">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="AZ104">
+        <v>51.65</v>
+      </c>
+      <c r="BA104">
+        <v>48.1</v>
+      </c>
+      <c r="BB104">
+        <v>43.7</v>
+      </c>
+      <c r="BC104">
+        <v>50.2</v>
+      </c>
+      <c r="BD104">
+        <v>47.3</v>
+      </c>
+      <c r="BE104">
+        <v>46.7</v>
+      </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -12036,8 +14948,44 @@
       <c r="AS106">
         <v>70.400000000000006</v>
       </c>
+      <c r="AT106">
+        <v>62.4</v>
+      </c>
+      <c r="AU106">
+        <v>52.5</v>
+      </c>
+      <c r="AV106">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="AW106">
+        <v>63.1</v>
+      </c>
+      <c r="AX106">
+        <v>50.1</v>
+      </c>
+      <c r="AY106">
+        <v>44.2</v>
+      </c>
+      <c r="AZ106">
+        <v>62</v>
+      </c>
+      <c r="BA106">
+        <v>59</v>
+      </c>
+      <c r="BB106">
+        <v>63.8</v>
+      </c>
+      <c r="BC106">
+        <v>62.35</v>
+      </c>
+      <c r="BD106">
+        <v>52.5</v>
+      </c>
+      <c r="BE106">
+        <v>65.05</v>
+      </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -12173,8 +15121,44 @@
       <c r="AS107">
         <v>46.2</v>
       </c>
+      <c r="AT107">
+        <v>49.6</v>
+      </c>
+      <c r="AU107">
+        <v>41.4</v>
+      </c>
+      <c r="AV107">
+        <v>49.6</v>
+      </c>
+      <c r="AW107">
+        <v>50</v>
+      </c>
+      <c r="AX107">
+        <v>34.6</v>
+      </c>
+      <c r="AY107">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="AZ107">
+        <v>43.4</v>
+      </c>
+      <c r="BA107">
+        <v>31.9</v>
+      </c>
+      <c r="BB107">
+        <v>45.5</v>
+      </c>
+      <c r="BC107">
+        <v>49.6</v>
+      </c>
+      <c r="BD107">
+        <v>41.4</v>
+      </c>
+      <c r="BE107">
+        <v>49.6</v>
+      </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -12310,8 +15294,44 @@
       <c r="AS108">
         <v>50.3</v>
       </c>
+      <c r="AT108">
+        <v>52.6</v>
+      </c>
+      <c r="AU108">
+        <v>42.1</v>
+      </c>
+      <c r="AV108">
+        <v>53</v>
+      </c>
+      <c r="AW108">
+        <v>53.6</v>
+      </c>
+      <c r="AX108">
+        <v>40.9</v>
+      </c>
+      <c r="AY108">
+        <v>42.7</v>
+      </c>
+      <c r="AZ108">
+        <v>49.15</v>
+      </c>
+      <c r="BA108">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="BB108">
+        <v>48.85</v>
+      </c>
+      <c r="BC108">
+        <v>52.1</v>
+      </c>
+      <c r="BD108">
+        <v>42.1</v>
+      </c>
+      <c r="BE108">
+        <v>53</v>
+      </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -12447,8 +15467,44 @@
       <c r="AS110">
         <v>59.9</v>
       </c>
+      <c r="AT110">
+        <v>63.7</v>
+      </c>
+      <c r="AU110">
+        <v>60.55</v>
+      </c>
+      <c r="AV110">
+        <v>63.65</v>
+      </c>
+      <c r="AW110">
+        <v>56.3</v>
+      </c>
+      <c r="AX110">
+        <v>53.65</v>
+      </c>
+      <c r="AY110">
+        <v>52.7</v>
+      </c>
+      <c r="AZ110">
+        <v>62.8</v>
+      </c>
+      <c r="BA110">
+        <v>60.25</v>
+      </c>
+      <c r="BB110">
+        <v>60.6</v>
+      </c>
+      <c r="BC110">
+        <v>63.75</v>
+      </c>
+      <c r="BD110">
+        <v>61.9</v>
+      </c>
+      <c r="BE110">
+        <v>63.95</v>
+      </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -12584,8 +15640,44 @@
       <c r="AS111">
         <v>40.85</v>
       </c>
+      <c r="AT111">
+        <v>52.6</v>
+      </c>
+      <c r="AU111">
+        <v>48.4</v>
+      </c>
+      <c r="AV111">
+        <v>51.15</v>
+      </c>
+      <c r="AW111">
+        <v>31.3</v>
+      </c>
+      <c r="AX111">
+        <v>29.3</v>
+      </c>
+      <c r="AY111">
+        <v>28.3</v>
+      </c>
+      <c r="AZ111">
+        <v>48.5</v>
+      </c>
+      <c r="BA111">
+        <v>49.9</v>
+      </c>
+      <c r="BB111">
+        <v>47.5</v>
+      </c>
+      <c r="BC111">
+        <v>52.6</v>
+      </c>
+      <c r="BD111">
+        <v>48.8</v>
+      </c>
+      <c r="BE111">
+        <v>50.5</v>
+      </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -12721,8 +15813,44 @@
       <c r="AS112">
         <v>44.25</v>
       </c>
+      <c r="AT112">
+        <v>54.8</v>
+      </c>
+      <c r="AU112">
+        <v>51.9</v>
+      </c>
+      <c r="AV112">
+        <v>54.1</v>
+      </c>
+      <c r="AW112">
+        <v>37.4</v>
+      </c>
+      <c r="AX112">
+        <v>35.35</v>
+      </c>
+      <c r="AY112">
+        <v>34.25</v>
+      </c>
+      <c r="AZ112">
+        <v>51.1</v>
+      </c>
+      <c r="BA112">
+        <v>52.25</v>
+      </c>
+      <c r="BB112">
+        <v>50.7</v>
+      </c>
+      <c r="BC112">
+        <v>54.95</v>
+      </c>
+      <c r="BD112">
+        <v>52.4</v>
+      </c>
+      <c r="BE112">
+        <v>54.1</v>
+      </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>128</v>
       </c>
@@ -12858,8 +15986,44 @@
       <c r="AS114">
         <v>55.3</v>
       </c>
+      <c r="AT114">
+        <v>63.4</v>
+      </c>
+      <c r="AU114">
+        <v>59.3</v>
+      </c>
+      <c r="AV114">
+        <v>63.65</v>
+      </c>
+      <c r="AW114">
+        <v>66</v>
+      </c>
+      <c r="AX114">
+        <v>81.3</v>
+      </c>
+      <c r="AY114">
+        <v>69.5</v>
+      </c>
+      <c r="AZ114">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="BA114">
+        <v>61.75</v>
+      </c>
+      <c r="BB114">
+        <v>54.3</v>
+      </c>
+      <c r="BC114">
+        <v>63.85</v>
+      </c>
+      <c r="BD114">
+        <v>59.3</v>
+      </c>
+      <c r="BE114">
+        <v>63.65</v>
+      </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>129</v>
       </c>
@@ -12995,8 +16159,44 @@
       <c r="AS115">
         <v>46.95</v>
       </c>
+      <c r="AT115">
+        <v>49.2</v>
+      </c>
+      <c r="AU115">
+        <v>55</v>
+      </c>
+      <c r="AV115">
+        <v>55.1</v>
+      </c>
+      <c r="AW115">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AX115">
+        <v>48.2</v>
+      </c>
+      <c r="AY115">
+        <v>39.4</v>
+      </c>
+      <c r="AZ115">
+        <v>48.2</v>
+      </c>
+      <c r="BA115">
+        <v>48.85</v>
+      </c>
+      <c r="BB115">
+        <v>43.4</v>
+      </c>
+      <c r="BC115">
+        <v>48.6</v>
+      </c>
+      <c r="BD115">
+        <v>54.8</v>
+      </c>
+      <c r="BE115">
+        <v>55.1</v>
+      </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>130</v>
       </c>
@@ -13132,8 +16332,44 @@
       <c r="AS116">
         <v>49.05</v>
       </c>
+      <c r="AT116">
+        <v>53.2</v>
+      </c>
+      <c r="AU116">
+        <v>56.7</v>
+      </c>
+      <c r="AV116">
+        <v>58.55</v>
+      </c>
+      <c r="AW116">
+        <v>45.7</v>
+      </c>
+      <c r="AX116">
+        <v>58.8</v>
+      </c>
+      <c r="AY116">
+        <v>49.2</v>
+      </c>
+      <c r="AZ116">
+        <v>51.9</v>
+      </c>
+      <c r="BA116">
+        <v>52.1</v>
+      </c>
+      <c r="BB116">
+        <v>47.9</v>
+      </c>
+      <c r="BC116">
+        <v>52.8</v>
+      </c>
+      <c r="BD116">
+        <v>55</v>
+      </c>
+      <c r="BE116">
+        <v>58.55</v>
+      </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -13269,8 +16505,44 @@
       <c r="AS118">
         <v>46.45</v>
       </c>
+      <c r="AT118">
+        <v>59.7</v>
+      </c>
+      <c r="AU118">
+        <v>52.9</v>
+      </c>
+      <c r="AV118">
+        <v>59.7</v>
+      </c>
+      <c r="AW118">
+        <v>54.5</v>
+      </c>
+      <c r="AX118">
+        <v>52.85</v>
+      </c>
+      <c r="AY118">
+        <v>51.3</v>
+      </c>
+      <c r="AZ118">
+        <v>58.45</v>
+      </c>
+      <c r="BA118">
+        <v>59.5</v>
+      </c>
+      <c r="BB118">
+        <v>56.05</v>
+      </c>
+      <c r="BC118">
+        <v>60</v>
+      </c>
+      <c r="BD118">
+        <v>52.15</v>
+      </c>
+      <c r="BE118">
+        <v>60</v>
+      </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -13406,8 +16678,44 @@
       <c r="AS119">
         <v>31.2</v>
       </c>
+      <c r="AT119">
+        <v>49.3</v>
+      </c>
+      <c r="AU119">
+        <v>45.5</v>
+      </c>
+      <c r="AV119">
+        <v>46.4</v>
+      </c>
+      <c r="AW119">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="AX119">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AY119">
+        <v>33.9</v>
+      </c>
+      <c r="AZ119">
+        <v>45.2</v>
+      </c>
+      <c r="BA119">
+        <v>42</v>
+      </c>
+      <c r="BB119">
+        <v>41.8</v>
+      </c>
+      <c r="BC119">
+        <v>49.5</v>
+      </c>
+      <c r="BD119">
+        <v>45.5</v>
+      </c>
+      <c r="BE119">
+        <v>47</v>
+      </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -13543,8 +16851,44 @@
       <c r="AS120">
         <v>34.15</v>
       </c>
+      <c r="AT120">
+        <v>51.4</v>
+      </c>
+      <c r="AU120">
+        <v>46.7</v>
+      </c>
+      <c r="AV120">
+        <v>49.05</v>
+      </c>
+      <c r="AW120">
+        <v>41.2</v>
+      </c>
+      <c r="AX120">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="AY120">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="AZ120">
+        <v>47.55</v>
+      </c>
+      <c r="BA120">
+        <v>45.6</v>
+      </c>
+      <c r="BB120">
+        <v>46.15</v>
+      </c>
+      <c r="BC120">
+        <v>51.7</v>
+      </c>
+      <c r="BD120">
+        <v>46.7</v>
+      </c>
+      <c r="BE120">
+        <v>50</v>
+      </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -13680,8 +17024,44 @@
       <c r="AS122">
         <v>56.7</v>
       </c>
+      <c r="AT122">
+        <v>63.85</v>
+      </c>
+      <c r="AU122">
+        <v>60.9</v>
+      </c>
+      <c r="AV122">
+        <v>58.05</v>
+      </c>
+      <c r="AW122">
+        <v>53.3</v>
+      </c>
+      <c r="AX122">
+        <v>45.3</v>
+      </c>
+      <c r="AY122">
+        <v>47.9</v>
+      </c>
+      <c r="AZ122">
+        <v>59.4</v>
+      </c>
+      <c r="BA122">
+        <v>57.45</v>
+      </c>
+      <c r="BB122">
+        <v>59.15</v>
+      </c>
+      <c r="BC122">
+        <v>65.05</v>
+      </c>
+      <c r="BD122">
+        <v>59.35</v>
+      </c>
+      <c r="BE122">
+        <v>59.2</v>
+      </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -13817,8 +17197,44 @@
       <c r="AS123">
         <v>39.25</v>
       </c>
+      <c r="AT123">
+        <v>49.2</v>
+      </c>
+      <c r="AU123">
+        <v>49.8</v>
+      </c>
+      <c r="AV123">
+        <v>44.5</v>
+      </c>
+      <c r="AW123">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AX123">
+        <v>27</v>
+      </c>
+      <c r="AY123">
+        <v>27.5</v>
+      </c>
+      <c r="AZ123">
+        <v>39.4</v>
+      </c>
+      <c r="BA123">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="BB123">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="BC123">
+        <v>50</v>
+      </c>
+      <c r="BD123">
+        <v>48.05</v>
+      </c>
+      <c r="BE123">
+        <v>45</v>
+      </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -13954,8 +17370,44 @@
       <c r="AS124">
         <v>43.65</v>
       </c>
+      <c r="AT124">
+        <v>53.15</v>
+      </c>
+      <c r="AU124">
+        <v>51.4</v>
+      </c>
+      <c r="AV124">
+        <v>48.75</v>
+      </c>
+      <c r="AW124">
+        <v>38.6</v>
+      </c>
+      <c r="AX124">
+        <v>29.95</v>
+      </c>
+      <c r="AY124">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AZ124">
+        <v>44.3</v>
+      </c>
+      <c r="BA124">
+        <v>40.9</v>
+      </c>
+      <c r="BB124">
+        <v>47.5</v>
+      </c>
+      <c r="BC124">
+        <v>53.5</v>
+      </c>
+      <c r="BD124">
+        <v>50.7</v>
+      </c>
+      <c r="BE124">
+        <v>49</v>
+      </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -14091,8 +17543,44 @@
       <c r="AS126">
         <v>57.85</v>
       </c>
+      <c r="AT126">
+        <v>67.3</v>
+      </c>
+      <c r="AU126">
+        <v>60.55</v>
+      </c>
+      <c r="AV126">
+        <v>63.1</v>
+      </c>
+      <c r="AW126">
+        <v>56.35</v>
+      </c>
+      <c r="AX126">
+        <v>54.6</v>
+      </c>
+      <c r="AY126">
+        <v>54.75</v>
+      </c>
+      <c r="AZ126">
+        <v>60.5</v>
+      </c>
+      <c r="BA126">
+        <v>65</v>
+      </c>
+      <c r="BB126">
+        <v>54.95</v>
+      </c>
+      <c r="BC126">
+        <v>67.3</v>
+      </c>
+      <c r="BD126">
+        <v>60.55</v>
+      </c>
+      <c r="BE126">
+        <v>63.5</v>
+      </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -14228,8 +17716,44 @@
       <c r="AS127">
         <v>48.55</v>
       </c>
+      <c r="AT127">
+        <v>60.9</v>
+      </c>
+      <c r="AU127">
+        <v>51.6</v>
+      </c>
+      <c r="AV127">
+        <v>53.05</v>
+      </c>
+      <c r="AW127">
+        <v>40.4</v>
+      </c>
+      <c r="AX127">
+        <v>34.6</v>
+      </c>
+      <c r="AY127">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AZ127">
+        <v>52.95</v>
+      </c>
+      <c r="BA127">
+        <v>44.2</v>
+      </c>
+      <c r="BB127">
+        <v>46.8</v>
+      </c>
+      <c r="BC127">
+        <v>60.7</v>
+      </c>
+      <c r="BD127">
+        <v>51.6</v>
+      </c>
+      <c r="BE127">
+        <v>53.05</v>
+      </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -14365,8 +17889,44 @@
       <c r="AS128">
         <v>53.95</v>
       </c>
+      <c r="AT128">
+        <v>61.6</v>
+      </c>
+      <c r="AU128">
+        <v>52.4</v>
+      </c>
+      <c r="AV128">
+        <v>54.8</v>
+      </c>
+      <c r="AW128">
+        <v>44.1</v>
+      </c>
+      <c r="AX128">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="AY128">
+        <v>40.6</v>
+      </c>
+      <c r="AZ128">
+        <v>54.65</v>
+      </c>
+      <c r="BA128">
+        <v>47.7</v>
+      </c>
+      <c r="BB128">
+        <v>49.65</v>
+      </c>
+      <c r="BC128">
+        <v>61.4</v>
+      </c>
+      <c r="BD128">
+        <v>52.4</v>
+      </c>
+      <c r="BE128">
+        <v>54.8</v>
+      </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
         <v>140</v>
       </c>
@@ -14502,8 +18062,44 @@
       <c r="AS130">
         <v>30.55</v>
       </c>
+      <c r="AT130">
+        <v>64.5</v>
+      </c>
+      <c r="AU130">
+        <v>58.35</v>
+      </c>
+      <c r="AV130">
+        <v>58.3</v>
+      </c>
+      <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>45</v>
+      </c>
+      <c r="BA130">
+        <v>54</v>
+      </c>
+      <c r="BB130">
+        <v>64.75</v>
+      </c>
+      <c r="BC130">
+        <v>64.2</v>
+      </c>
+      <c r="BD130">
+        <v>58.35</v>
+      </c>
+      <c r="BE130">
+        <v>58.3</v>
+      </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -14639,8 +18235,44 @@
       <c r="AS131">
         <v>38.5</v>
       </c>
+      <c r="AT131">
+        <v>45.25</v>
+      </c>
+      <c r="AU131">
+        <v>37.4</v>
+      </c>
+      <c r="AV131">
+        <v>39.25</v>
+      </c>
+      <c r="AW131">
+        <v>0</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>26.1</v>
+      </c>
+      <c r="BA131">
+        <v>27.2</v>
+      </c>
+      <c r="BB131">
+        <v>34.9</v>
+      </c>
+      <c r="BC131">
+        <v>45.25</v>
+      </c>
+      <c r="BD131">
+        <v>37.4</v>
+      </c>
+      <c r="BE131">
+        <v>37.4</v>
+      </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -14776,8 +18408,44 @@
       <c r="AS132">
         <v>36.549999999999997</v>
       </c>
+      <c r="AT132">
+        <v>49.8</v>
+      </c>
+      <c r="AU132">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="AV132">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AW132">
+        <v>0</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>30.35</v>
+      </c>
+      <c r="BA132">
+        <v>34.6</v>
+      </c>
+      <c r="BB132">
+        <v>43.4</v>
+      </c>
+      <c r="BC132">
+        <v>49.8</v>
+      </c>
+      <c r="BD132">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="BE132">
+        <v>39.549999999999997</v>
+      </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -14913,8 +18581,44 @@
       <c r="AS134">
         <v>48.9</v>
       </c>
+      <c r="AT134">
+        <v>58</v>
+      </c>
+      <c r="AU134">
+        <v>52.4</v>
+      </c>
+      <c r="AV134">
+        <v>55.55</v>
+      </c>
+      <c r="AW134">
+        <v>54.05</v>
+      </c>
+      <c r="AX134">
+        <v>52</v>
+      </c>
+      <c r="AY134">
+        <v>50.9</v>
+      </c>
+      <c r="AZ134">
+        <v>57.7</v>
+      </c>
+      <c r="BA134">
+        <v>53.9</v>
+      </c>
+      <c r="BB134">
+        <v>52.3</v>
+      </c>
+      <c r="BC134">
+        <v>58</v>
+      </c>
+      <c r="BD134">
+        <v>50.2</v>
+      </c>
+      <c r="BE134">
+        <v>56.1</v>
+      </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -15050,8 +18754,44 @@
       <c r="AS135">
         <v>22.4</v>
       </c>
+      <c r="AT135">
+        <v>31.3</v>
+      </c>
+      <c r="AU135">
+        <v>28.4</v>
+      </c>
+      <c r="AV135">
+        <v>28.25</v>
+      </c>
+      <c r="AW135">
+        <v>23.9</v>
+      </c>
+      <c r="AX135">
+        <v>22.4</v>
+      </c>
+      <c r="AY135">
+        <v>22.4</v>
+      </c>
+      <c r="AZ135">
+        <v>31.3</v>
+      </c>
+      <c r="BA135">
+        <v>23.7</v>
+      </c>
+      <c r="BB135">
+        <v>26.9</v>
+      </c>
+      <c r="BC135">
+        <v>31.55</v>
+      </c>
+      <c r="BD135">
+        <v>29.9</v>
+      </c>
+      <c r="BE135">
+        <v>28.25</v>
+      </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -15187,8 +18927,44 @@
       <c r="AS136">
         <v>29.15</v>
       </c>
+      <c r="AT136">
+        <v>38</v>
+      </c>
+      <c r="AU136">
+        <v>33.6</v>
+      </c>
+      <c r="AV136">
+        <v>35.450000000000003</v>
+      </c>
+      <c r="AW136">
+        <v>31.4</v>
+      </c>
+      <c r="AX136">
+        <v>29</v>
+      </c>
+      <c r="AY136">
+        <v>29.6</v>
+      </c>
+      <c r="AZ136">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="BA136">
+        <v>30.6</v>
+      </c>
+      <c r="BB136">
+        <v>31.8</v>
+      </c>
+      <c r="BC136">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="BD136">
+        <v>33.6</v>
+      </c>
+      <c r="BE136">
+        <v>35.450000000000003</v>
+      </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -15324,8 +19100,44 @@
       <c r="AS138">
         <v>56.8</v>
       </c>
+      <c r="AT138">
+        <v>65.3</v>
+      </c>
+      <c r="AU138">
+        <v>63.65</v>
+      </c>
+      <c r="AV138">
+        <v>57.4</v>
+      </c>
+      <c r="AW138">
+        <v>56.6</v>
+      </c>
+      <c r="AX138">
+        <v>54.65</v>
+      </c>
+      <c r="AY138">
+        <v>52.4</v>
+      </c>
+      <c r="AZ138">
+        <v>60.55</v>
+      </c>
+      <c r="BA138">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="BB138">
+        <v>49.75</v>
+      </c>
+      <c r="BC138">
+        <v>65.3</v>
+      </c>
+      <c r="BD138">
+        <v>63.65</v>
+      </c>
+      <c r="BE138">
+        <v>57.7</v>
+      </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -15461,8 +19273,44 @@
       <c r="AS139">
         <v>49.5</v>
       </c>
+      <c r="AT139">
+        <v>52.25</v>
+      </c>
+      <c r="AU139">
+        <v>49.05</v>
+      </c>
+      <c r="AV139">
+        <v>49.9</v>
+      </c>
+      <c r="AW139">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AX139">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AY139">
+        <v>37</v>
+      </c>
+      <c r="AZ139">
+        <v>45.95</v>
+      </c>
+      <c r="BA139">
+        <v>48</v>
+      </c>
+      <c r="BB139">
+        <v>41.6</v>
+      </c>
+      <c r="BC139">
+        <v>52.1</v>
+      </c>
+      <c r="BD139">
+        <v>49.05</v>
+      </c>
+      <c r="BE139">
+        <v>49.05</v>
+      </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
         <v>148</v>
       </c>
@@ -15598,8 +19446,44 @@
       <c r="AS140">
         <v>51.3</v>
       </c>
+      <c r="AT140">
+        <v>55.15</v>
+      </c>
+      <c r="AU140">
+        <v>51.9</v>
+      </c>
+      <c r="AV140">
+        <v>52.8</v>
+      </c>
+      <c r="AW140">
+        <v>44.5</v>
+      </c>
+      <c r="AX140">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY140">
+        <v>41.1</v>
+      </c>
+      <c r="AZ140">
+        <v>47.35</v>
+      </c>
+      <c r="BA140">
+        <v>50.55</v>
+      </c>
+      <c r="BB140">
+        <v>43.15</v>
+      </c>
+      <c r="BC140">
+        <v>54.9</v>
+      </c>
+      <c r="BD140">
+        <v>51.9</v>
+      </c>
+      <c r="BE140">
+        <v>52.65</v>
+      </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
         <v>149</v>
       </c>
@@ -15735,8 +19619,44 @@
       <c r="AS142">
         <v>42</v>
       </c>
+      <c r="AT142">
+        <v>59.1</v>
+      </c>
+      <c r="AU142">
+        <v>55.2</v>
+      </c>
+      <c r="AV142">
+        <v>54.5</v>
+      </c>
+      <c r="AW142">
+        <v>50.3</v>
+      </c>
+      <c r="AX142">
+        <v>47.8</v>
+      </c>
+      <c r="AY142">
+        <v>47.3</v>
+      </c>
+      <c r="AZ142">
+        <v>56.1</v>
+      </c>
+      <c r="BA142">
+        <v>57</v>
+      </c>
+      <c r="BB142">
+        <v>53.9</v>
+      </c>
+      <c r="BC142">
+        <v>59.1</v>
+      </c>
+      <c r="BD142">
+        <v>55.55</v>
+      </c>
+      <c r="BE142">
+        <v>56</v>
+      </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
         <v>150</v>
       </c>
@@ -15872,8 +19792,44 @@
       <c r="AS143">
         <v>42.5</v>
       </c>
+      <c r="AT143">
+        <v>59.6</v>
+      </c>
+      <c r="AU143">
+        <v>57</v>
+      </c>
+      <c r="AV143">
+        <v>55.65</v>
+      </c>
+      <c r="AW143">
+        <v>45.8</v>
+      </c>
+      <c r="AX143">
+        <v>43.4</v>
+      </c>
+      <c r="AY143">
+        <v>42.4</v>
+      </c>
+      <c r="AZ143">
+        <v>57.5</v>
+      </c>
+      <c r="BA143">
+        <v>56.45</v>
+      </c>
+      <c r="BB143">
+        <v>54.5</v>
+      </c>
+      <c r="BC143">
+        <v>59.5</v>
+      </c>
+      <c r="BD143">
+        <v>57.6</v>
+      </c>
+      <c r="BE143">
+        <v>57.1</v>
+      </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -16009,8 +19965,44 @@
       <c r="AS144">
         <v>41.9</v>
       </c>
+      <c r="AT144">
+        <v>59.4</v>
+      </c>
+      <c r="AU144">
+        <v>55.1</v>
+      </c>
+      <c r="AV144">
+        <v>56.25</v>
+      </c>
+      <c r="AW144">
+        <v>46.7</v>
+      </c>
+      <c r="AX144">
+        <v>44.5</v>
+      </c>
+      <c r="AY144">
+        <v>43.3</v>
+      </c>
+      <c r="AZ144">
+        <v>56.6</v>
+      </c>
+      <c r="BA144">
+        <v>55.8</v>
+      </c>
+      <c r="BB144">
+        <v>54.05</v>
+      </c>
+      <c r="BC144">
+        <v>59.2</v>
+      </c>
+      <c r="BD144">
+        <v>55.85</v>
+      </c>
+      <c r="BE144">
+        <v>57.1</v>
+      </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -16146,8 +20138,44 @@
       <c r="AS146">
         <v>55.5</v>
       </c>
+      <c r="AT146">
+        <v>63.9</v>
+      </c>
+      <c r="AU146">
+        <v>59.8</v>
+      </c>
+      <c r="AV146">
+        <v>62.1</v>
+      </c>
+      <c r="AW146">
+        <v>58.7</v>
+      </c>
+      <c r="AX146">
+        <v>53.6</v>
+      </c>
+      <c r="AY146">
+        <v>56.55</v>
+      </c>
+      <c r="AZ146">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="BA146">
+        <v>36.5</v>
+      </c>
+      <c r="BB146">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="BC146">
+        <v>63.9</v>
+      </c>
+      <c r="BD146">
+        <v>57.9</v>
+      </c>
+      <c r="BE146">
+        <v>62.1</v>
+      </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -16283,8 +20311,44 @@
       <c r="AS147">
         <v>36.6</v>
       </c>
+      <c r="AT147">
+        <v>40.450000000000003</v>
+      </c>
+      <c r="AU147">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="AV147">
+        <v>35.9</v>
+      </c>
+      <c r="AW147">
+        <v>25.6</v>
+      </c>
+      <c r="AX147">
+        <v>24.6</v>
+      </c>
+      <c r="AY147">
+        <v>25.05</v>
+      </c>
+      <c r="AZ147">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="BA147">
+        <v>22.25</v>
+      </c>
+      <c r="BB147">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="BC147">
+        <v>40.4</v>
+      </c>
+      <c r="BD147">
+        <v>36.1</v>
+      </c>
+      <c r="BE147">
+        <v>36.1</v>
+      </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -16420,8 +20484,44 @@
       <c r="AS148">
         <v>38.700000000000003</v>
       </c>
+      <c r="AT148">
+        <v>45.9</v>
+      </c>
+      <c r="AU148">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AV148">
+        <v>40.6</v>
+      </c>
+      <c r="AW148">
+        <v>34.4</v>
+      </c>
+      <c r="AX148">
+        <v>31.6</v>
+      </c>
+      <c r="AY148">
+        <v>33.4</v>
+      </c>
+      <c r="AZ148">
+        <v>44.85</v>
+      </c>
+      <c r="BA148">
+        <v>27.25</v>
+      </c>
+      <c r="BB148">
+        <v>40.6</v>
+      </c>
+      <c r="BC148">
+        <v>45.9</v>
+      </c>
+      <c r="BD148">
+        <v>42.5</v>
+      </c>
+      <c r="BE148">
+        <v>40.799999999999997</v>
+      </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
         <v>155</v>
       </c>
@@ -16557,8 +20657,44 @@
       <c r="AS150">
         <v>54.6</v>
       </c>
+      <c r="AT150">
+        <v>64.2</v>
+      </c>
+      <c r="AU150">
+        <v>58.2</v>
+      </c>
+      <c r="AV150">
+        <v>60.9</v>
+      </c>
+      <c r="AW150">
+        <v>57.2</v>
+      </c>
+      <c r="AX150">
+        <v>59.3</v>
+      </c>
+      <c r="AY150">
+        <v>53.9</v>
+      </c>
+      <c r="AZ150">
+        <v>64.3</v>
+      </c>
+      <c r="BA150">
+        <v>59.2</v>
+      </c>
+      <c r="BB150">
+        <v>59.6</v>
+      </c>
+      <c r="BC150">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="BD150">
+        <v>58</v>
+      </c>
+      <c r="BE150">
+        <v>61.5</v>
+      </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -16694,8 +20830,44 @@
       <c r="AS151">
         <v>31.7</v>
       </c>
+      <c r="AT151">
+        <v>43.65</v>
+      </c>
+      <c r="AU151">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="AV151">
+        <v>41.05</v>
+      </c>
+      <c r="AW151">
+        <v>34</v>
+      </c>
+      <c r="AX151">
+        <v>34</v>
+      </c>
+      <c r="AY151">
+        <v>30.8</v>
+      </c>
+      <c r="AZ151">
+        <v>41</v>
+      </c>
+      <c r="BA151">
+        <v>36.5</v>
+      </c>
+      <c r="BB151">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="BC151">
+        <v>44.8</v>
+      </c>
+      <c r="BD151">
+        <v>41.7</v>
+      </c>
+      <c r="BE151">
+        <v>41.65</v>
+      </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
         <v>157</v>
       </c>
@@ -16831,8 +21003,44 @@
       <c r="AS152">
         <v>37.9</v>
       </c>
+      <c r="AT152">
+        <v>47.65</v>
+      </c>
+      <c r="AU152">
+        <v>45.9</v>
+      </c>
+      <c r="AV152">
+        <v>45.6</v>
+      </c>
+      <c r="AW152">
+        <v>39.6</v>
+      </c>
+      <c r="AX152">
+        <v>38.6</v>
+      </c>
+      <c r="AY152">
+        <v>36.9</v>
+      </c>
+      <c r="AZ152">
+        <v>46.7</v>
+      </c>
+      <c r="BA152">
+        <v>41.9</v>
+      </c>
+      <c r="BB152">
+        <v>44.4</v>
+      </c>
+      <c r="BC152">
+        <v>48.3</v>
+      </c>
+      <c r="BD152">
+        <v>46.6</v>
+      </c>
+      <c r="BE152">
+        <v>46.05</v>
+      </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
         <v>158</v>
       </c>
@@ -16968,8 +21176,44 @@
       <c r="AS154">
         <v>61.8</v>
       </c>
+      <c r="AT154">
+        <v>66.2</v>
+      </c>
+      <c r="AU154">
+        <v>74.900000000000006</v>
+      </c>
+      <c r="AV154">
+        <v>61.6</v>
+      </c>
+      <c r="AW154">
+        <v>57.2</v>
+      </c>
+      <c r="AX154">
+        <v>55.2</v>
+      </c>
+      <c r="AY154">
+        <v>55.85</v>
+      </c>
+      <c r="AZ154">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="BA154">
+        <v>72.3</v>
+      </c>
+      <c r="BB154">
+        <v>63.2</v>
+      </c>
+      <c r="BC154">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="BD154">
+        <v>76</v>
+      </c>
+      <c r="BE154">
+        <v>61.6</v>
+      </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
         <v>159</v>
       </c>
@@ -17105,8 +21349,44 @@
       <c r="AS155">
         <v>37.65</v>
       </c>
+      <c r="AT155">
+        <v>49.2</v>
+      </c>
+      <c r="AU155">
+        <v>47.7</v>
+      </c>
+      <c r="AV155">
+        <v>41.8</v>
+      </c>
+      <c r="AW155">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AX155">
+        <v>33.5</v>
+      </c>
+      <c r="AY155">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="AZ155">
+        <v>49.2</v>
+      </c>
+      <c r="BA155">
+        <v>36.5</v>
+      </c>
+      <c r="BB155">
+        <v>38</v>
+      </c>
+      <c r="BC155">
+        <v>49.2</v>
+      </c>
+      <c r="BD155">
+        <v>49.2</v>
+      </c>
+      <c r="BE155">
+        <v>43.3</v>
+      </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
         <v>160</v>
       </c>
@@ -17242,8 +21522,44 @@
       <c r="AS156">
         <v>46.45</v>
       </c>
+      <c r="AT156">
+        <v>52.3</v>
+      </c>
+      <c r="AU156">
+        <v>49.7</v>
+      </c>
+      <c r="AV156">
+        <v>47.8</v>
+      </c>
+      <c r="AW156">
+        <v>42.4</v>
+      </c>
+      <c r="AX156">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="AY156">
+        <v>41.2</v>
+      </c>
+      <c r="AZ156">
+        <v>54.7</v>
+      </c>
+      <c r="BA156">
+        <v>45.9</v>
+      </c>
+      <c r="BB156">
+        <v>43.7</v>
+      </c>
+      <c r="BC156">
+        <v>52.4</v>
+      </c>
+      <c r="BD156">
+        <v>52.9</v>
+      </c>
+      <c r="BE156">
+        <v>48.1</v>
+      </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -17379,8 +21695,44 @@
       <c r="AS158">
         <v>55.15</v>
       </c>
+      <c r="AT158">
+        <v>63.1</v>
+      </c>
+      <c r="AU158">
+        <v>61.1</v>
+      </c>
+      <c r="AV158">
+        <v>61.9</v>
+      </c>
+      <c r="AW158">
+        <v>54.7</v>
+      </c>
+      <c r="AX158">
+        <v>53.3</v>
+      </c>
+      <c r="AY158">
+        <v>53.8</v>
+      </c>
+      <c r="AZ158">
+        <v>62.05</v>
+      </c>
+      <c r="BA158">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="BB158">
+        <v>64.150000000000006</v>
+      </c>
+      <c r="BC158">
+        <v>63.15</v>
+      </c>
+      <c r="BD158">
+        <v>61.2</v>
+      </c>
+      <c r="BE158">
+        <v>62.05</v>
+      </c>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -17516,8 +21868,44 @@
       <c r="AS159">
         <v>34.9</v>
       </c>
+      <c r="AT159">
+        <v>43</v>
+      </c>
+      <c r="AU159">
+        <v>37</v>
+      </c>
+      <c r="AV159">
+        <v>43</v>
+      </c>
+      <c r="AW159">
+        <v>31</v>
+      </c>
+      <c r="AX159">
+        <v>29.8</v>
+      </c>
+      <c r="AY159">
+        <v>29.8</v>
+      </c>
+      <c r="AZ159">
+        <v>42.5</v>
+      </c>
+      <c r="BA159">
+        <v>38.5</v>
+      </c>
+      <c r="BB159">
+        <v>32.35</v>
+      </c>
+      <c r="BC159">
+        <v>43.75</v>
+      </c>
+      <c r="BD159">
+        <v>40</v>
+      </c>
+      <c r="BE159">
+        <v>42.75</v>
+      </c>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -17653,8 +22041,44 @@
       <c r="AS160">
         <v>41.6</v>
       </c>
+      <c r="AT160">
+        <v>47.6</v>
+      </c>
+      <c r="AU160">
+        <v>43.45</v>
+      </c>
+      <c r="AV160">
+        <v>47.4</v>
+      </c>
+      <c r="AW160">
+        <v>37</v>
+      </c>
+      <c r="AX160">
+        <v>35.1</v>
+      </c>
+      <c r="AY160">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AZ160">
+        <v>46.65</v>
+      </c>
+      <c r="BA160">
+        <v>46.4</v>
+      </c>
+      <c r="BB160">
+        <v>39.950000000000003</v>
+      </c>
+      <c r="BC160">
+        <v>47.6</v>
+      </c>
+      <c r="BD160">
+        <v>43.7</v>
+      </c>
+      <c r="BE160">
+        <v>46.25</v>
+      </c>
     </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -17790,8 +22214,44 @@
       <c r="AS162">
         <v>55.95</v>
       </c>
+      <c r="AT162">
+        <v>59.95</v>
+      </c>
+      <c r="AU162">
+        <v>59.2</v>
+      </c>
+      <c r="AV162">
+        <v>63.7</v>
+      </c>
+      <c r="AW162">
+        <v>52.6</v>
+      </c>
+      <c r="AX162">
+        <v>54.5</v>
+      </c>
+      <c r="AY162">
+        <v>49.8</v>
+      </c>
+      <c r="AZ162">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="BA162">
+        <v>30</v>
+      </c>
+      <c r="BB162">
+        <v>60.75</v>
+      </c>
+      <c r="BC162">
+        <v>59.95</v>
+      </c>
+      <c r="BD162">
+        <v>59.05</v>
+      </c>
+      <c r="BE162">
+        <v>63.6</v>
+      </c>
     </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -17927,8 +22387,44 @@
       <c r="AS163">
         <v>51.65</v>
       </c>
+      <c r="AT163">
+        <v>57.95</v>
+      </c>
+      <c r="AU163">
+        <v>52.5</v>
+      </c>
+      <c r="AV163">
+        <v>50.8</v>
+      </c>
+      <c r="AW163">
+        <v>43</v>
+      </c>
+      <c r="AX163">
+        <v>34.6</v>
+      </c>
+      <c r="AY163">
+        <v>39.5</v>
+      </c>
+      <c r="AZ163">
+        <v>57.6</v>
+      </c>
+      <c r="BA163">
+        <v>37.5</v>
+      </c>
+      <c r="BB163">
+        <v>46.75</v>
+      </c>
+      <c r="BC163">
+        <v>57.95</v>
+      </c>
+      <c r="BD163">
+        <v>52.15</v>
+      </c>
+      <c r="BE163">
+        <v>49.4</v>
+      </c>
     </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -18064,8 +22560,44 @@
       <c r="AS164">
         <v>52.75</v>
       </c>
+      <c r="AT164">
+        <v>57.3</v>
+      </c>
+      <c r="AU164">
+        <v>56.2</v>
+      </c>
+      <c r="AV164">
+        <v>51.2</v>
+      </c>
+      <c r="AW164">
+        <v>44.8</v>
+      </c>
+      <c r="AX164">
+        <v>39</v>
+      </c>
+      <c r="AY164">
+        <v>41.8</v>
+      </c>
+      <c r="AZ164">
+        <v>57.4</v>
+      </c>
+      <c r="BA164">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="BB164">
+        <v>53.6</v>
+      </c>
+      <c r="BC164">
+        <v>57.3</v>
+      </c>
+      <c r="BD164">
+        <v>55.15</v>
+      </c>
+      <c r="BE164">
+        <v>50.75</v>
+      </c>
     </row>
-    <row r="166" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -18201,8 +22733,44 @@
       <c r="AS166">
         <v>45.7</v>
       </c>
+      <c r="AT166">
+        <v>63.4</v>
+      </c>
+      <c r="AU166">
+        <v>61</v>
+      </c>
+      <c r="AV166">
+        <v>54.3</v>
+      </c>
+      <c r="AW166">
+        <v>50.7</v>
+      </c>
+      <c r="AX166">
+        <v>52.2</v>
+      </c>
+      <c r="AY166">
+        <v>50.9</v>
+      </c>
+      <c r="AZ166">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>49.15</v>
+      </c>
+      <c r="BC166">
+        <v>63.4</v>
+      </c>
+      <c r="BD166">
+        <v>61</v>
+      </c>
+      <c r="BE166">
+        <v>54.3</v>
+      </c>
     </row>
-    <row r="167" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
         <v>168</v>
       </c>
@@ -18338,8 +22906,44 @@
       <c r="AS167">
         <v>46.2</v>
       </c>
+      <c r="AT167">
+        <v>62.3</v>
+      </c>
+      <c r="AU167">
+        <v>51</v>
+      </c>
+      <c r="AV167">
+        <v>51.4</v>
+      </c>
+      <c r="AW167">
+        <v>45.6</v>
+      </c>
+      <c r="AX167">
+        <v>44.35</v>
+      </c>
+      <c r="AY167">
+        <v>46.2</v>
+      </c>
+      <c r="AZ167">
+        <v>50.5</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>46.8</v>
+      </c>
+      <c r="BC167">
+        <v>62.3</v>
+      </c>
+      <c r="BD167">
+        <v>51</v>
+      </c>
+      <c r="BE167">
+        <v>51.4</v>
+      </c>
     </row>
-    <row r="168" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
         <v>169</v>
       </c>
@@ -18475,8 +23079,44 @@
       <c r="AS168">
         <v>46.1</v>
       </c>
+      <c r="AT168">
+        <v>62.15</v>
+      </c>
+      <c r="AU168">
+        <v>55.4</v>
+      </c>
+      <c r="AV168">
+        <v>53.65</v>
+      </c>
+      <c r="AW168">
+        <v>46.8</v>
+      </c>
+      <c r="AX168">
+        <v>45.85</v>
+      </c>
+      <c r="AY168">
+        <v>46.7</v>
+      </c>
+      <c r="AZ168">
+        <v>55.6</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>45.6</v>
+      </c>
+      <c r="BC168">
+        <v>62.15</v>
+      </c>
+      <c r="BD168">
+        <v>55.4</v>
+      </c>
+      <c r="BE168">
+        <v>53.65</v>
+      </c>
     </row>
-    <row r="170" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -18612,8 +23252,44 @@
       <c r="AS170">
         <v>73.150000000000006</v>
       </c>
+      <c r="AT170">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AU170">
+        <v>54.55</v>
+      </c>
+      <c r="AV170">
+        <v>63.1</v>
+      </c>
+      <c r="AW170">
+        <v>52.5</v>
+      </c>
+      <c r="AX170">
+        <v>50.7</v>
+      </c>
+      <c r="AY170">
+        <v>53.2</v>
+      </c>
+      <c r="AZ170">
+        <v>63.1</v>
+      </c>
+      <c r="BA170">
+        <v>76.349999999999994</v>
+      </c>
+      <c r="BB170">
+        <v>60.1</v>
+      </c>
+      <c r="BC170">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="BD170">
+        <v>48.5</v>
+      </c>
+      <c r="BE170">
+        <v>64.849999999999994</v>
+      </c>
     </row>
-    <row r="171" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -18749,8 +23425,44 @@
       <c r="AS171">
         <v>61.65</v>
       </c>
+      <c r="AT171">
+        <v>47.4</v>
+      </c>
+      <c r="AU171">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="AV171">
+        <v>44</v>
+      </c>
+      <c r="AW171">
+        <v>38.5</v>
+      </c>
+      <c r="AX171">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="AY171">
+        <v>36</v>
+      </c>
+      <c r="AZ171">
+        <v>46.7</v>
+      </c>
+      <c r="BA171">
+        <v>44</v>
+      </c>
+      <c r="BB171">
+        <v>42.5</v>
+      </c>
+      <c r="BC171">
+        <v>47.4</v>
+      </c>
+      <c r="BD171">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="BE171">
+        <v>44.4</v>
+      </c>
     </row>
-    <row r="172" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -18886,8 +23598,44 @@
       <c r="AS172">
         <v>64.55</v>
       </c>
+      <c r="AT172">
+        <v>49.3</v>
+      </c>
+      <c r="AU172">
+        <v>43.95</v>
+      </c>
+      <c r="AV172">
+        <v>48</v>
+      </c>
+      <c r="AW172">
+        <v>41.65</v>
+      </c>
+      <c r="AX172">
+        <v>37.5</v>
+      </c>
+      <c r="AY172">
+        <v>40.9</v>
+      </c>
+      <c r="AZ172">
+        <v>49.2</v>
+      </c>
+      <c r="BA172">
+        <v>52.1</v>
+      </c>
+      <c r="BB172">
+        <v>47.6</v>
+      </c>
+      <c r="BC172">
+        <v>49.3</v>
+      </c>
+      <c r="BD172">
+        <v>46.4</v>
+      </c>
+      <c r="BE172">
+        <v>47.6</v>
+      </c>
     </row>
-    <row r="174" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -19023,8 +23771,44 @@
       <c r="AS174">
         <v>53.3</v>
       </c>
+      <c r="AT174">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="AU174">
+        <v>60.5</v>
+      </c>
+      <c r="AV174">
+        <v>63.75</v>
+      </c>
+      <c r="AW174">
+        <v>53.8</v>
+      </c>
+      <c r="AX174">
+        <v>51.3</v>
+      </c>
+      <c r="AY174">
+        <v>51</v>
+      </c>
+      <c r="AZ174">
+        <v>63.6</v>
+      </c>
+      <c r="BA174">
+        <v>58.1</v>
+      </c>
+      <c r="BB174">
+        <v>59.1</v>
+      </c>
+      <c r="BC174">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="BD174">
+        <v>61</v>
+      </c>
+      <c r="BE174">
+        <v>64.05</v>
+      </c>
     </row>
-    <row r="175" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -19160,8 +23944,44 @@
       <c r="AS175">
         <v>40.4</v>
       </c>
+      <c r="AT175">
+        <v>51</v>
+      </c>
+      <c r="AU175">
+        <v>44.6</v>
+      </c>
+      <c r="AV175">
+        <v>47.3</v>
+      </c>
+      <c r="AW175">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="AX175">
+        <v>37.5</v>
+      </c>
+      <c r="AY175">
+        <v>37.4</v>
+      </c>
+      <c r="AZ175">
+        <v>48.1</v>
+      </c>
+      <c r="BA175">
+        <v>42.9</v>
+      </c>
+      <c r="BB175">
+        <v>44</v>
+      </c>
+      <c r="BC175">
+        <v>51</v>
+      </c>
+      <c r="BD175">
+        <v>44.8</v>
+      </c>
+      <c r="BE175">
+        <v>47.5</v>
+      </c>
     </row>
-    <row r="176" spans="1:45" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -19296,6 +24116,42 @@
       </c>
       <c r="AS176">
         <v>43</v>
+      </c>
+      <c r="AT176">
+        <v>54.6</v>
+      </c>
+      <c r="AU176">
+        <v>48.6</v>
+      </c>
+      <c r="AV176">
+        <v>50.95</v>
+      </c>
+      <c r="AW176">
+        <v>43.2</v>
+      </c>
+      <c r="AX176">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="AY176">
+        <v>40.9</v>
+      </c>
+      <c r="AZ176">
+        <v>51.5</v>
+      </c>
+      <c r="BA176">
+        <v>46.6</v>
+      </c>
+      <c r="BB176">
+        <v>47.8</v>
+      </c>
+      <c r="BC176">
+        <v>54.7</v>
+      </c>
+      <c r="BD176">
+        <v>48.8</v>
+      </c>
+      <c r="BE176">
+        <v>51.15</v>
       </c>
     </row>
   </sheetData>
